--- a/GM_2014-09-30.xlsx
+++ b/GM_2014-09-30.xlsx
@@ -1297,7 +1297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,13 +1305,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1323,15 +1335,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1631,15 +1647,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="K255" sqref="K255"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="J370" sqref="J370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
     <col min="7" max="11" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -1747,7 +1767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>138</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>0.13528429251619201</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="0">(1/J3)^2+3</f>
+        <f t="shared" ref="K3:K10" si="0">(1/J3)^2+3</f>
         <v>57.63931554641934</v>
       </c>
       <c r="L3" t="s">
@@ -1801,7 +1821,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>126</v>
       </c>
@@ -1855,7 +1875,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>139</v>
       </c>
@@ -1909,7 +1929,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>85</v>
       </c>
@@ -1963,7 +1983,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -2017,7 +2037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>245</v>
       </c>
@@ -2071,7 +2091,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>74</v>
       </c>
@@ -2125,7 +2145,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>153</v>
       </c>
@@ -2179,46 +2199,46 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11">
-        <v>0.45471427033982198</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.118761434035615</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.49062742533123699</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.14971785683199801</v>
+      <c r="G11" s="2">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.18232357799999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.31120961829489E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.18252355262949599</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>47.612113313670129</v>
+        <f t="shared" ref="K11:K74" si="1">(1/J11)^2+3</f>
+        <v>33.016646693914737</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
         <v>34</v>
@@ -2230,10 +2250,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>108</v>
       </c>
@@ -2265,7 +2285,7 @@
         <v>2.8559773898877001E-2</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1228.9999999999993</v>
       </c>
       <c r="L12" t="s">
@@ -2287,7 +2307,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>124</v>
       </c>
@@ -2319,7 +2339,7 @@
         <v>0.11624763874381901</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.000000000000341</v>
       </c>
       <c r="L13" t="s">
@@ -2341,7 +2361,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>152</v>
       </c>
@@ -2373,7 +2393,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L14" t="s">
@@ -2395,7 +2415,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>195</v>
       </c>
@@ -2427,7 +2447,7 @@
         <v>0.19031201230511599</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.610075690740242</v>
       </c>
       <c r="L15" t="s">
@@ -2449,7 +2469,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>35</v>
       </c>
@@ -2481,7 +2501,7 @@
         <v>7.3490988640307606E-2</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>188.15345498055655</v>
       </c>
       <c r="L16" t="s">
@@ -2503,7 +2523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>175</v>
       </c>
@@ -2535,7 +2555,7 @@
         <v>3.7164707312358297E-2</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>727.00000000000068</v>
       </c>
       <c r="L17" t="s">
@@ -2557,7 +2577,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>174</v>
       </c>
@@ -2589,7 +2609,7 @@
         <v>3.7164707312358297E-2</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>727.00000000000068</v>
       </c>
       <c r="L18" t="s">
@@ -2611,7 +2631,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>86</v>
       </c>
@@ -2643,7 +2663,7 @@
         <v>0.124577125472272</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.435230845474692</v>
       </c>
       <c r="L19" t="s">
@@ -2665,7 +2685,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>259</v>
       </c>
@@ -2697,7 +2717,7 @@
         <v>0.15617376188860599</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.000000000000043</v>
       </c>
       <c r="L20" t="s">
@@ -2719,7 +2739,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>88</v>
       </c>
@@ -2751,7 +2771,7 @@
         <v>0.12160176212387</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.627021993585728</v>
       </c>
       <c r="L21" t="s">
@@ -2773,7 +2793,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>147</v>
       </c>
@@ -2805,7 +2825,7 @@
         <v>0.13034485655556999</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.858908357319166</v>
       </c>
       <c r="L22" t="s">
@@ -2827,7 +2847,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>132</v>
       </c>
@@ -2859,7 +2879,7 @@
         <v>0.23948442493810501</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.435943459726296</v>
       </c>
       <c r="L23" t="s">
@@ -2881,7 +2901,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>237</v>
       </c>
@@ -2913,7 +2933,7 @@
         <v>0.16012815380508699</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.000000000000071</v>
       </c>
       <c r="L24" t="s">
@@ -2935,7 +2955,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>109</v>
       </c>
@@ -2967,7 +2987,7 @@
         <v>2.8501713717057401E-2</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1234.0000000000007</v>
       </c>
       <c r="L25" t="s">
@@ -2989,7 +3009,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>151</v>
       </c>
@@ -3021,7 +3041,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L26" t="s">
@@ -3043,7 +3063,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>76</v>
       </c>
@@ -3075,7 +3095,7 @@
         <v>0.133140400408019</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.41314116743095</v>
       </c>
       <c r="L27" t="s">
@@ -3097,7 +3117,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>230</v>
       </c>
@@ -3129,7 +3149,7 @@
         <v>0.11486044286019099</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.798223507926863</v>
       </c>
       <c r="L28" t="s">
@@ -3151,12 +3171,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -3165,32 +3185,32 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="H29" s="1">
-        <v>7.1660629258430905E-2</v>
+        <v>2.49899614882153E-2</v>
       </c>
       <c r="I29">
-        <v>0.41180003447869001</v>
+        <v>0.36544375427139603</v>
       </c>
       <c r="J29" s="1">
-        <v>8.4515425472851693E-2</v>
+        <v>2.8478588590558698E-2</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="0"/>
-        <v>142.99999999999989</v>
+        <f t="shared" si="1"/>
+        <v>1236.0000000000002</v>
       </c>
       <c r="L29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N29" t="s">
         <v>19</v>
@@ -3202,10 +3222,10 @@
         <v>3</v>
       </c>
       <c r="Q29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>78</v>
       </c>
@@ -3237,7 +3257,7 @@
         <v>0.13332592012244801</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.256255418372938</v>
       </c>
       <c r="L30" t="s">
@@ -3259,7 +3279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>193</v>
       </c>
@@ -3291,7 +3311,7 @@
         <v>0.2</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="L31" t="s">
@@ -3313,7 +3333,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>251</v>
       </c>
@@ -3345,7 +3365,7 @@
         <v>0.137401638346729</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.968317441652502</v>
       </c>
       <c r="L32" t="s">
@@ -3367,7 +3387,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>125</v>
       </c>
@@ -3399,7 +3419,7 @@
         <v>8.2606684930286695E-2</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149.54452991585936</v>
       </c>
       <c r="L33" t="s">
@@ -3421,7 +3441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>250</v>
       </c>
@@ -3453,7 +3473,7 @@
         <v>0.124521980162382</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.49231454376654</v>
       </c>
       <c r="L34" t="s">
@@ -3475,12 +3495,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -3489,32 +3509,32 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G35">
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H35" s="1">
-        <v>2.6648537072830498E-2</v>
+        <v>2.6147235451580601E-2</v>
       </c>
       <c r="I35">
-        <v>0.38842309971829603</v>
+        <v>0.29856626366017802</v>
       </c>
       <c r="J35" s="1">
-        <v>3.08753760547219E-2</v>
+        <v>2.8548133476995901E-2</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="0"/>
-        <v>1052.0000000000011</v>
+        <f t="shared" si="1"/>
+        <v>1230.0000000000014</v>
       </c>
       <c r="L35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N35" t="s">
         <v>19</v>
@@ -3526,49 +3546,49 @@
         <v>3</v>
       </c>
       <c r="Q35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="C36" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>400</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
-      <c r="G36">
-        <v>0.368305806793924</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.141060316917203</v>
-      </c>
-      <c r="I36">
-        <v>0.386461605322307</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.16319798811268099</v>
+      <c r="G36" s="2">
+        <v>-0.24404410200000001</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.169124684</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-0.24906984297006299</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.17983522465846499</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="0"/>
-        <v>40.546581240455055</v>
+        <f t="shared" si="1"/>
+        <v>33.920782536221452</v>
       </c>
       <c r="L36" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N36" t="s">
         <v>34</v>
@@ -3577,13 +3597,13 @@
         <v>20</v>
       </c>
       <c r="P36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>157</v>
       </c>
@@ -3615,7 +3635,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L37" t="s">
@@ -3637,7 +3657,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>144</v>
       </c>
@@ -3669,7 +3689,7 @@
         <v>0.14749936008338599</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.964202327694807</v>
       </c>
       <c r="L38" t="s">
@@ -3691,7 +3711,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>257</v>
       </c>
@@ -3723,7 +3743,7 @@
         <v>0.13736056394868901</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.000000000000007</v>
       </c>
       <c r="L39" t="s">
@@ -3745,9 +3765,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
         <v>168</v>
@@ -3759,32 +3779,32 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H40" s="1">
-        <v>2.49899614882153E-2</v>
+        <v>2.6763875134683701E-2</v>
       </c>
       <c r="I40">
-        <v>0.36544375427139603</v>
+        <v>0.25541281188299497</v>
       </c>
       <c r="J40" s="1">
-        <v>2.8478588590558698E-2</v>
+        <v>2.8548133476995901E-2</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="0"/>
-        <v>1236.0000000000002</v>
+        <f t="shared" si="1"/>
+        <v>1230.0000000000014</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N40" t="s">
         <v>19</v>
@@ -3799,7 +3819,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>158</v>
       </c>
@@ -3831,7 +3851,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L41" t="s">
@@ -3853,7 +3873,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>176</v>
       </c>
@@ -3885,7 +3905,7 @@
         <v>3.7164707312358297E-2</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>727.00000000000068</v>
       </c>
       <c r="L42" t="s">
@@ -3907,12 +3927,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -3921,26 +3941,26 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G43">
-        <v>0.33500000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="H43" s="1">
-        <v>2.1456112164062902E-2</v>
+        <v>2.7244788142135198E-2</v>
       </c>
       <c r="I43">
-        <v>0.34844976508924802</v>
+        <v>0.21317134656486</v>
       </c>
       <c r="J43" s="1">
-        <v>2.4168412226141599E-2</v>
+        <v>2.8501713717057401E-2</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="0"/>
-        <v>1714.9999999999986</v>
+        <f t="shared" si="1"/>
+        <v>1234.0000000000007</v>
       </c>
       <c r="L43" t="s">
         <v>27</v>
@@ -3958,10 +3978,10 @@
         <v>3</v>
       </c>
       <c r="Q43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>229</v>
       </c>
@@ -3993,7 +4013,7 @@
         <v>0.12154180726458</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.693757361601897</v>
       </c>
       <c r="L44" t="s">
@@ -4015,7 +4035,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>135</v>
       </c>
@@ -4047,7 +4067,7 @@
         <v>0.14515985438510701</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.457729023824996</v>
       </c>
       <c r="L45" t="s">
@@ -4069,7 +4089,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>87</v>
       </c>
@@ -4101,7 +4121,7 @@
         <v>0.12699582974086299</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.004195958033478</v>
       </c>
       <c r="L46" t="s">
@@ -4123,7 +4143,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>159</v>
       </c>
@@ -4155,7 +4175,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L47" t="s">
@@ -4177,7 +4197,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>167</v>
       </c>
@@ -4209,7 +4229,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L48" t="s">
@@ -4263,7 +4283,7 @@
         <v>0.129364091727488</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.754760861883319</v>
       </c>
       <c r="L49" t="s">
@@ -4285,7 +4305,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>191</v>
       </c>
@@ -4317,7 +4337,7 @@
         <v>0.112807034497991</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.582824565902769</v>
       </c>
       <c r="L50" t="s">
@@ -4339,49 +4359,49 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G51">
-        <v>0.3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H51" s="1">
-        <v>3.48969069925553E-2</v>
-      </c>
-      <c r="I51">
-        <v>0.30951960420311198</v>
+        <v>2.8034323081643199E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.140925576070494</v>
       </c>
       <c r="J51" s="1">
-        <v>3.8348249442368497E-2</v>
+        <v>2.8594780785029798E-2</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="0"/>
-        <v>683.0000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1225.9999999999989</v>
       </c>
       <c r="L51" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M51" t="s">
         <v>18</v>
       </c>
       <c r="N51" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O51" t="s">
         <v>20</v>
@@ -4390,10 +4410,10 @@
         <v>3</v>
       </c>
       <c r="Q51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>66</v>
       </c>
@@ -4425,7 +4445,7 @@
         <v>9.3250480824031395E-2</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.99999999999996</v>
       </c>
       <c r="L52" t="s">
@@ -4447,7 +4467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15</v>
       </c>
@@ -4479,7 +4499,7 @@
         <v>0.16784227018902001</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.497462570087997</v>
       </c>
       <c r="L53" t="s">
@@ -4501,7 +4521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>256</v>
       </c>
@@ -4533,7 +4553,7 @@
         <v>0.13736056394868901</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.000000000000007</v>
       </c>
       <c r="L54" t="s">
@@ -4555,7 +4575,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>258</v>
       </c>
@@ -4587,7 +4607,7 @@
         <v>0.13736056394868901</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.000000000000007</v>
       </c>
       <c r="L55" t="s">
@@ -4609,7 +4629,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>247</v>
       </c>
@@ -4641,7 +4661,7 @@
         <v>0.145784986079842</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.051600463746773</v>
       </c>
       <c r="L56" t="s">
@@ -4663,7 +4683,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>18</v>
       </c>
@@ -4695,7 +4715,7 @@
         <v>7.7849894416152296E-2</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="L57" t="s">
@@ -4717,49 +4737,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G58">
-        <v>0.28999999999999998</v>
+        <v>0.08</v>
       </c>
       <c r="H58" s="1">
-        <v>3.5123161664265302E-2</v>
-      </c>
-      <c r="I58">
-        <v>0.29856626366017802</v>
+        <v>2.8400165699599501E-2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>8.0171325037589697E-2</v>
       </c>
       <c r="J58" s="1">
-        <v>3.8348249442368497E-2</v>
+        <v>2.8583097523751499E-2</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="0"/>
-        <v>683.0000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1226.999999999998</v>
       </c>
       <c r="L58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N58" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O58" t="s">
         <v>20</v>
@@ -4768,12 +4788,12 @@
         <v>3</v>
       </c>
       <c r="Q58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
         <v>168</v>
@@ -4785,35 +4805,35 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G59">
-        <v>0.28999999999999998</v>
+        <v>0.03</v>
       </c>
       <c r="H59" s="1">
-        <v>2.6147235451580601E-2</v>
-      </c>
-      <c r="I59">
-        <v>0.29856626366017802</v>
+        <v>2.8569045482323301E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3.00090048631265E-2</v>
       </c>
       <c r="J59" s="1">
-        <v>2.8548133476995901E-2</v>
+        <v>2.8594780785029798E-2</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="0"/>
-        <v>1230.0000000000014</v>
+        <f t="shared" si="1"/>
+        <v>1225.9999999999989</v>
       </c>
       <c r="L59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M59" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N59" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O59" t="s">
         <v>20</v>
@@ -4825,7 +4845,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>168</v>
       </c>
@@ -4857,7 +4877,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L60" t="s">
@@ -4879,7 +4899,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>194</v>
       </c>
@@ -4911,7 +4931,7 @@
         <v>0.19596223583594499</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.040854331830204</v>
       </c>
       <c r="L61" t="s">
@@ -4933,7 +4953,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -4965,7 +4985,7 @@
         <v>3.5533452725935097E-2</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>794.99999999999898</v>
       </c>
       <c r="L62" t="s">
@@ -4987,7 +5007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>67</v>
       </c>
@@ -5019,7 +5039,7 @@
         <v>9.3250480824031395E-2</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.99999999999996</v>
       </c>
       <c r="L63" t="s">
@@ -5041,12 +5061,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -5055,26 +5075,26 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
       </c>
-      <c r="G64">
-        <v>0.27</v>
+      <c r="G64" s="3">
+        <v>0.17</v>
       </c>
       <c r="H64" s="1">
-        <v>7.8354250955880805E-2</v>
+        <v>2.3657235955545999E-2</v>
       </c>
       <c r="I64">
-        <v>0.27686382265510001</v>
+        <v>0.17166666350057899</v>
       </c>
       <c r="J64" s="1">
-        <v>8.4515425472851693E-2</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" si="0"/>
-        <v>142.99999999999989</v>
+        <v>2.4361276856704799E-2</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="1"/>
+        <v>1687.9999999999995</v>
       </c>
       <c r="L64" t="s">
         <v>27</v>
@@ -5083,7 +5103,7 @@
         <v>18</v>
       </c>
       <c r="N64" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O64" t="s">
         <v>20</v>
@@ -5092,15 +5112,15 @@
         <v>3</v>
       </c>
       <c r="Q64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -5109,29 +5129,29 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
-      </c>
-      <c r="G65">
-        <v>0.27</v>
+        <v>15</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.09</v>
       </c>
       <c r="H65" s="1">
-        <v>2.24065349748559E-2</v>
+        <v>2.4163950514165498E-2</v>
       </c>
       <c r="I65" s="1">
-        <v>0.27686382265510001</v>
+        <v>9.0244187856146796E-2</v>
       </c>
       <c r="J65" s="1">
-        <v>2.4168412226141599E-2</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="0"/>
-        <v>1714.9999999999986</v>
+        <v>2.4361276856704799E-2</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="1"/>
+        <v>1687.9999999999995</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M65" t="s">
         <v>18</v>
@@ -5146,10 +5166,10 @@
         <v>3</v>
       </c>
       <c r="Q65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>123</v>
       </c>
@@ -5181,7 +5201,7 @@
         <v>0.11624763874381901</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.000000000000341</v>
       </c>
       <c r="L66" t="s">
@@ -5203,7 +5223,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>204</v>
       </c>
@@ -5235,7 +5255,7 @@
         <v>0.1</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" ref="K67:K130" si="1">(1/J67)^2+3</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="L67" t="s">
@@ -5311,7 +5331,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>262</v>
       </c>
@@ -5365,7 +5385,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>80</v>
       </c>
@@ -5419,7 +5439,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>81</v>
       </c>
@@ -5473,7 +5493,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>91</v>
       </c>
@@ -5527,12 +5547,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
@@ -5541,32 +5561,32 @@
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G73">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="H73" s="1">
-        <v>5.4564582822836098E-2</v>
-      </c>
-      <c r="I73">
-        <v>0.266108406873654</v>
+        <v>2.4205364684821901E-2</v>
+      </c>
+      <c r="I73" s="1">
+        <v>8.0171325037589697E-2</v>
       </c>
       <c r="J73" s="1">
-        <v>5.8520573598065298E-2</v>
-      </c>
-      <c r="K73" s="2">
+        <v>2.4361276856704799E-2</v>
+      </c>
+      <c r="K73" s="4">
         <f t="shared" si="1"/>
-        <v>294.99999999999983</v>
+        <v>1687.9999999999995</v>
       </c>
       <c r="L73" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M73" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N73" t="s">
         <v>19</v>
@@ -5578,10 +5598,10 @@
         <v>3</v>
       </c>
       <c r="Q73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>171</v>
       </c>
@@ -5635,7 +5655,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11</v>
       </c>
@@ -5667,7 +5687,7 @@
         <v>0.193218094659804</v>
       </c>
       <c r="K75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K75:K138" si="2">(1/J75)^2+3</f>
         <v>29.785786915400639</v>
       </c>
       <c r="L75" t="s">
@@ -5689,12 +5709,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -5703,32 +5723,32 @@
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G76">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="H76" s="1">
-        <v>2.6763875134683701E-2</v>
-      </c>
-      <c r="I76">
-        <v>0.25541281188299497</v>
+        <v>2.4205364684821901E-2</v>
+      </c>
+      <c r="I76" s="1">
+        <v>8.0171325037589697E-2</v>
       </c>
       <c r="J76" s="1">
-        <v>2.8548133476995901E-2</v>
-      </c>
-      <c r="K76" s="2">
-        <f t="shared" si="1"/>
-        <v>1230.0000000000014</v>
+        <v>2.4361276856704799E-2</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="2"/>
+        <v>1687.9999999999995</v>
       </c>
       <c r="L76" t="s">
         <v>27</v>
       </c>
       <c r="M76" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N76" t="s">
         <v>19</v>
@@ -5740,10 +5760,10 @@
         <v>3</v>
       </c>
       <c r="Q76" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>113</v>
       </c>
@@ -5775,7 +5795,7 @@
         <v>8.11107105653813E-2</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154.99999999999989</v>
       </c>
       <c r="L77" t="s">
@@ -5797,7 +5817,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>166</v>
       </c>
@@ -5829,7 +5849,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L78" t="s">
@@ -5851,7 +5871,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>40</v>
       </c>
@@ -5883,7 +5903,7 @@
         <v>6.8937046481190506E-2</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>213.4237008975349</v>
       </c>
       <c r="L79" t="s">
@@ -5905,7 +5925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>261</v>
       </c>
@@ -5924,20 +5944,20 @@
       <c r="F80" t="s">
         <v>15</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>0.24252443616243</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="2">
         <v>0.32280783493936899</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="2">
         <v>0.24745457340301799</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="2">
         <v>0.34298134682779602</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.500784313725484</v>
       </c>
       <c r="L80" t="s">
@@ -5959,7 +5979,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>264</v>
       </c>
@@ -5991,7 +6011,7 @@
         <v>9.0718271593084598E-2</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124.50956483176101</v>
       </c>
       <c r="L81" t="s">
@@ -6013,7 +6033,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>36</v>
       </c>
@@ -6045,7 +6065,7 @@
         <v>7.6020425200291994E-2</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>176.03717301514462</v>
       </c>
       <c r="L82" t="s">
@@ -6067,7 +6087,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -6099,7 +6119,7 @@
         <v>2.5915085804667198E-2</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1492.0000000000014</v>
       </c>
       <c r="L83" t="s">
@@ -6121,7 +6141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10</v>
       </c>
@@ -6153,7 +6173,7 @@
         <v>6.5795169495976899E-2</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="L84" t="s">
@@ -6175,49 +6195,49 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G85">
-        <v>0.24</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H85" s="1">
-        <v>3.6139390274488099E-2</v>
+        <v>2.1456112164062902E-2</v>
       </c>
       <c r="I85">
-        <v>0.244774112659353</v>
+        <v>0.34844976508924802</v>
       </c>
       <c r="J85" s="1">
-        <v>3.8348249442368497E-2</v>
+        <v>2.4168412226141599E-2</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="1"/>
-        <v>683.0000000000008</v>
+        <f t="shared" si="2"/>
+        <v>1714.9999999999986</v>
       </c>
       <c r="L85" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M85" t="s">
         <v>18</v>
       </c>
       <c r="N85" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O85" t="s">
         <v>20</v>
@@ -6226,10 +6246,10 @@
         <v>3</v>
       </c>
       <c r="Q85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>33</v>
       </c>
@@ -6261,7 +6281,7 @@
         <v>6.9015734606760304E-2</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212.9441462713709</v>
       </c>
       <c r="L86" t="s">
@@ -6283,7 +6303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>79</v>
       </c>
@@ -6315,7 +6335,7 @@
         <v>0.10692054615322499</v>
       </c>
       <c r="K87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.473733466120507</v>
       </c>
       <c r="L87" t="s">
@@ -6337,40 +6357,40 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="C88" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="D88" t="s">
         <v>32</v>
       </c>
       <c r="E88" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
       </c>
-      <c r="G88">
-        <v>0.23238050000631399</v>
-      </c>
-      <c r="H88">
-        <v>0.16243895576030201</v>
-      </c>
-      <c r="I88">
-        <v>0.23670438807941099</v>
-      </c>
-      <c r="J88" s="1">
-        <v>0.17171149620083001</v>
+      <c r="G88" s="2">
+        <v>0.21486178267511999</v>
+      </c>
+      <c r="H88" s="2">
+        <v>9.5256257568788694E-2</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0.218262907439882</v>
+      </c>
+      <c r="J88" s="2">
+        <v>9.9866660435118104E-2</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" si="1"/>
-        <v>36.915736707047628</v>
+        <f t="shared" si="2"/>
+        <v>103.26721346281485</v>
       </c>
       <c r="L88" t="s">
         <v>27</v>
@@ -6388,10 +6408,10 @@
         <v>2</v>
       </c>
       <c r="Q88" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>19</v>
       </c>
@@ -6423,7 +6443,7 @@
         <v>7.7849894416152296E-2</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="L89" t="s">
@@ -6445,43 +6465,43 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="F90" t="s">
         <v>91</v>
       </c>
       <c r="G90">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="H90" s="1">
-        <v>3.6319627046867198E-2</v>
-      </c>
-      <c r="I90">
-        <v>0.234189466759367</v>
+        <v>2.24065349748559E-2</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.27686382265510001</v>
       </c>
       <c r="J90" s="1">
-        <v>3.8348249442368497E-2</v>
+        <v>2.4168412226141599E-2</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="1"/>
-        <v>683.0000000000008</v>
+        <f t="shared" si="2"/>
+        <v>1714.9999999999986</v>
       </c>
       <c r="L90" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M90" t="s">
         <v>18</v>
@@ -6496,10 +6516,10 @@
         <v>3</v>
       </c>
       <c r="Q90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>228</v>
       </c>
@@ -6531,7 +6551,7 @@
         <v>3.9043440472151497E-2</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659.00000000000068</v>
       </c>
       <c r="L91" t="s">
@@ -6553,7 +6573,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>127</v>
       </c>
@@ -6585,7 +6605,7 @@
         <v>0.10772622575897201</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.170202038856957</v>
       </c>
       <c r="L92" t="s">
@@ -6607,7 +6627,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>34</v>
       </c>
@@ -6639,7 +6659,7 @@
         <v>6.24461017479555E-2</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>259.44210628866438</v>
       </c>
       <c r="L93" t="s">
@@ -6661,7 +6681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -6693,7 +6713,7 @@
         <v>0.125409918587092</v>
       </c>
       <c r="K94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.582299168000048</v>
       </c>
       <c r="L94" t="s">
@@ -6715,7 +6735,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>142</v>
       </c>
@@ -6747,7 +6767,7 @@
         <v>0.103142124625879</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97.000000000000597</v>
       </c>
       <c r="L95" t="s">
@@ -6769,61 +6789,61 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>375</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>378</v>
       </c>
       <c r="D96" t="s">
         <v>32</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="F96" t="s">
         <v>15</v>
       </c>
-      <c r="G96">
-        <v>0.220800499008764</v>
-      </c>
-      <c r="H96" s="1">
-        <v>1.8610503009152301E-2</v>
-      </c>
-      <c r="I96">
-        <v>0.22449747868459299</v>
-      </c>
-      <c r="J96">
-        <v>1.9564319548172001E-2</v>
+      <c r="G96" s="2">
+        <v>0.368305806793924</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.141060316917203</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0.386461605322307</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.16319798811268099</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="1"/>
-        <v>2615.5854553501417</v>
+        <f t="shared" si="2"/>
+        <v>40.546581240455055</v>
       </c>
       <c r="L96" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M96" t="s">
         <v>18</v>
       </c>
       <c r="N96" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O96" t="s">
         <v>20</v>
       </c>
       <c r="P96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q96" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -6855,7 +6875,7 @@
         <v>3.5533452725935097E-2</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>794.99999999999898</v>
       </c>
       <c r="L97" t="s">
@@ -6877,12 +6897,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
         <v>15</v>
@@ -6891,26 +6911,26 @@
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G98">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="H98" s="1">
-        <v>8.0424878879965606E-2</v>
+        <v>2.3385355670014599E-2</v>
       </c>
       <c r="I98">
-        <v>0.223656109021832</v>
+        <v>0.18198268860070599</v>
       </c>
       <c r="J98" s="1">
-        <v>8.4515425472851693E-2</v>
+        <v>2.4168412226141599E-2</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="1"/>
-        <v>142.99999999999989</v>
+        <f t="shared" si="2"/>
+        <v>1714.9999999999986</v>
       </c>
       <c r="L98" t="s">
         <v>27</v>
@@ -6919,7 +6939,7 @@
         <v>18</v>
       </c>
       <c r="N98" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O98" t="s">
         <v>20</v>
@@ -6928,10 +6948,10 @@
         <v>3</v>
       </c>
       <c r="Q98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>149</v>
       </c>
@@ -6963,7 +6983,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L99" t="s">
@@ -6985,7 +7005,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14</v>
       </c>
@@ -7017,7 +7037,7 @@
         <v>0.156298772323787</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.934441223513687</v>
       </c>
       <c r="L100" t="s">
@@ -7039,7 +7059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>68</v>
       </c>
@@ -7071,7 +7091,7 @@
         <v>7.9555728417572996E-2</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="L101" t="s">
@@ -7093,7 +7113,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6</v>
       </c>
@@ -7125,7 +7145,7 @@
         <v>8.0701805315322603E-2</v>
       </c>
       <c r="K102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>156.54422964264793</v>
       </c>
       <c r="L102" t="s">
@@ -7147,7 +7167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>32</v>
       </c>
@@ -7179,7 +7199,7 @@
         <v>6.2511349599023505E-2</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>258.90704940441339</v>
       </c>
       <c r="L103" t="s">
@@ -7201,43 +7221,43 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B104" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="C104" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="D104" t="s">
         <v>32</v>
       </c>
       <c r="E104" t="s">
-        <v>370</v>
+        <v>245</v>
       </c>
       <c r="F104" t="s">
         <v>15</v>
       </c>
-      <c r="G104">
-        <v>0.21486178267511999</v>
-      </c>
-      <c r="H104" s="1">
-        <v>9.5256257568788694E-2</v>
-      </c>
-      <c r="I104">
-        <v>0.218262907439882</v>
-      </c>
-      <c r="J104" s="1">
-        <v>9.9866660435118104E-2</v>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.122474487139159</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0.122474487139159</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="1"/>
-        <v>103.26721346281485</v>
+        <f t="shared" si="2"/>
+        <v>69.666666666666558</v>
       </c>
       <c r="L104" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M104" t="s">
         <v>18</v>
@@ -7252,64 +7272,64 @@
         <v>2</v>
       </c>
       <c r="Q104" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>375</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>376</v>
       </c>
       <c r="D105" t="s">
         <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="F105" t="s">
         <v>15</v>
       </c>
-      <c r="G105">
-        <v>0.211597818308255</v>
-      </c>
-      <c r="H105" s="1">
-        <v>1.96368328676941E-2</v>
-      </c>
-      <c r="I105">
-        <v>0.214843467983546</v>
-      </c>
-      <c r="J105" s="1">
-        <v>2.0557255978696599E-2</v>
+      <c r="G105" s="2">
+        <v>-0.32001329437029802</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.14994280567160301</v>
+      </c>
+      <c r="I105" s="2">
+        <v>-0.331661919793934</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0.16705016380374199</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="1"/>
-        <v>2369.2995029964495</v>
+        <f t="shared" si="2"/>
+        <v>38.834899295890843</v>
       </c>
       <c r="L105" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M105" t="s">
         <v>18</v>
       </c>
       <c r="N105" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O105" t="s">
         <v>20</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q105" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>26</v>
       </c>
@@ -7341,7 +7361,7 @@
         <v>7.4953168899586101E-2</v>
       </c>
       <c r="K106" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>181.0000000000002</v>
       </c>
       <c r="L106" t="s">
@@ -7363,12 +7383,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
@@ -7377,26 +7397,26 @@
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
       </c>
       <c r="G107">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="H107" s="1">
-        <v>2.9513771970708699E-2</v>
-      </c>
-      <c r="I107">
-        <v>0.21317134656486</v>
+        <v>2.3624622951053401E-2</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.151140435936467</v>
       </c>
       <c r="J107" s="1">
-        <v>3.08753760547219E-2</v>
+        <v>2.4168412226141599E-2</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="1"/>
-        <v>1052.0000000000011</v>
+        <f t="shared" si="2"/>
+        <v>1714.9999999999986</v>
       </c>
       <c r="L107" t="s">
         <v>27</v>
@@ -7405,7 +7425,7 @@
         <v>18</v>
       </c>
       <c r="N107" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O107" t="s">
         <v>20</v>
@@ -7414,15 +7434,15 @@
         <v>3</v>
       </c>
       <c r="Q107" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
@@ -7431,32 +7451,32 @@
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="F108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G108">
-        <v>0.21</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H108" s="1">
-        <v>2.7244788142135198E-2</v>
-      </c>
-      <c r="I108">
-        <v>0.21317134656486</v>
+        <v>2.4162974333390701E-2</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1.50011251518994E-2</v>
       </c>
       <c r="J108" s="1">
-        <v>2.8501713717057401E-2</v>
+        <v>2.4168412226141599E-2</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="1"/>
-        <v>1234.0000000000007</v>
+        <f t="shared" si="2"/>
+        <v>1714.9999999999986</v>
       </c>
       <c r="L108" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M108" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N108" t="s">
         <v>19</v>
@@ -7468,10 +7488,10 @@
         <v>3</v>
       </c>
       <c r="Q108" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>150</v>
       </c>
@@ -7503,7 +7523,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L109" t="s">
@@ -7525,7 +7545,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>180</v>
       </c>
@@ -7557,7 +7577,7 @@
         <v>6.9843029576957802E-2</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208.00000000000011</v>
       </c>
       <c r="L110" t="s">
@@ -7579,7 +7599,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>202</v>
       </c>
@@ -7611,7 +7631,7 @@
         <v>0.1</v>
       </c>
       <c r="K111" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="L111" t="s">
@@ -7633,7 +7653,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>89</v>
       </c>
@@ -7665,7 +7685,7 @@
         <v>0.125629738112774</v>
       </c>
       <c r="K112" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.359988697383599</v>
       </c>
       <c r="L112" t="s">
@@ -7687,7 +7707,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>39</v>
       </c>
@@ -7719,7 +7739,7 @@
         <v>6.9270757820967199E-2</v>
       </c>
       <c r="K113" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>211.40115535796136</v>
       </c>
       <c r="L113" t="s">
@@ -7741,7 +7761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>73</v>
       </c>
@@ -7773,7 +7793,7 @@
         <v>0.13721223985867301</v>
       </c>
       <c r="K114" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.114646123085329</v>
       </c>
       <c r="L114" t="s">
@@ -7795,7 +7815,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>145</v>
       </c>
@@ -7827,7 +7847,7 @@
         <v>0.115828208217331</v>
       </c>
       <c r="K115" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.536899529128007</v>
       </c>
       <c r="L115" t="s">
@@ -7849,7 +7869,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>170</v>
       </c>
@@ -7881,7 +7901,7 @@
         <v>7.8010934622318895E-2</v>
       </c>
       <c r="K116" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>167.319474690221</v>
       </c>
       <c r="L116" t="s">
@@ -7903,7 +7923,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7935,7 +7955,7 @@
         <v>8.11107105653813E-2</v>
       </c>
       <c r="K117" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154.99999999999989</v>
       </c>
       <c r="L117" t="s">
@@ -7957,7 +7977,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>155</v>
       </c>
@@ -7989,7 +8009,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K118" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L118" t="s">
@@ -8011,7 +8031,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>156</v>
       </c>
@@ -8043,7 +8063,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K119" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L119" t="s">
@@ -8065,7 +8085,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>164</v>
       </c>
@@ -8097,7 +8117,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L120" t="s">
@@ -8119,7 +8139,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>181</v>
       </c>
@@ -8151,7 +8171,7 @@
         <v>6.9843029576957802E-2</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208.00000000000011</v>
       </c>
       <c r="L121" t="s">
@@ -8173,7 +8193,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24</v>
       </c>
@@ -8205,7 +8225,7 @@
         <v>5.0211390073050997E-2</v>
       </c>
       <c r="K122" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>399.63908772275056</v>
       </c>
       <c r="L122" t="s">
@@ -8227,40 +8247,40 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="B123" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="C123" t="s">
-        <v>211</v>
+        <v>369</v>
       </c>
       <c r="D123" t="s">
         <v>32</v>
       </c>
       <c r="E123" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
       </c>
-      <c r="G123">
-        <v>0.19252686892794901</v>
-      </c>
-      <c r="H123" s="1">
-        <v>2.0025822910582101E-2</v>
-      </c>
-      <c r="I123">
-        <v>0.194959986887697</v>
-      </c>
-      <c r="J123" s="1">
-        <v>2.0796685224532801E-2</v>
+      <c r="G123" s="2">
+        <v>6.5745978697184806E-2</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0.109835297645431</v>
+      </c>
+      <c r="I123" s="2">
+        <v>6.5840954878297303E-2</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0.11031212552717901</v>
       </c>
       <c r="K123" s="2">
-        <f t="shared" si="1"/>
-        <v>2315.127414518653</v>
+        <f t="shared" si="2"/>
+        <v>85.177607740030922</v>
       </c>
       <c r="L123" t="s">
         <v>27</v>
@@ -8269,7 +8289,7 @@
         <v>18</v>
       </c>
       <c r="N123" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O123" t="s">
         <v>20</v>
@@ -8278,10 +8298,10 @@
         <v>3</v>
       </c>
       <c r="Q123" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7</v>
       </c>
@@ -8313,7 +8333,7 @@
         <v>8.0898454010413706E-2</v>
       </c>
       <c r="K124" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>155.79866350021868</v>
       </c>
       <c r="L124" t="s">
@@ -8335,7 +8355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -8367,7 +8387,7 @@
         <v>3.5533452725935097E-2</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>794.99999999999898</v>
       </c>
       <c r="L125" t="s">
@@ -8389,7 +8409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>17</v>
       </c>
@@ -8421,7 +8441,7 @@
         <v>7.7849894416152296E-2</v>
       </c>
       <c r="K126" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="L126" t="s">
@@ -8443,7 +8463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>121</v>
       </c>
@@ -8475,7 +8495,7 @@
         <v>7.0359754473029196E-2</v>
       </c>
       <c r="K127" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>204.99999999999994</v>
       </c>
       <c r="L127" t="s">
@@ -8497,7 +8517,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>71</v>
       </c>
@@ -8529,7 +8549,7 @@
         <v>2.96944775272318E-2</v>
       </c>
       <c r="K128" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1137.0928787730545</v>
       </c>
       <c r="L128" t="s">
@@ -8551,40 +8571,40 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s">
-        <v>207</v>
+        <v>372</v>
       </c>
       <c r="D129" t="s">
         <v>32</v>
       </c>
       <c r="E129" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
       </c>
-      <c r="G129">
-        <v>0.18326311381858301</v>
-      </c>
-      <c r="H129" s="1">
-        <v>1.8981002685397898E-2</v>
-      </c>
-      <c r="I129">
-        <v>0.18535712867601101</v>
-      </c>
-      <c r="J129" s="1">
-        <v>1.9640640853634098E-2</v>
+      <c r="G129" s="2">
+        <v>1.47224692839925E-2</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.110401607016099</v>
+      </c>
+      <c r="I129" s="2">
+        <v>1.4723533126162199E-2</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0.110425541873969</v>
       </c>
       <c r="K129" s="2">
-        <f t="shared" si="1"/>
-        <v>2595.3204834417961</v>
+        <f t="shared" si="2"/>
+        <v>85.008887758390017</v>
       </c>
       <c r="L129" t="s">
         <v>27</v>
@@ -8593,7 +8613,7 @@
         <v>18</v>
       </c>
       <c r="N129" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O129" t="s">
         <v>20</v>
@@ -8602,10 +8622,10 @@
         <v>3</v>
       </c>
       <c r="Q129" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>118</v>
       </c>
@@ -8637,7 +8657,7 @@
         <v>0.120257214010715</v>
       </c>
       <c r="K130" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.14769747710146</v>
       </c>
       <c r="L130" t="s">
@@ -8659,7 +8679,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20</v>
       </c>
@@ -8691,7 +8711,7 @@
         <v>8.6317193763445696E-2</v>
       </c>
       <c r="K131" s="2">
-        <f t="shared" ref="K131:K194" si="2">(1/J131)^2+3</f>
+        <f t="shared" si="2"/>
         <v>137.21633473994635</v>
       </c>
       <c r="L131" t="s">
@@ -8713,7 +8733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>22</v>
       </c>
@@ -8767,7 +8787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>233</v>
       </c>
@@ -8821,7 +8841,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>235</v>
       </c>
@@ -8875,9 +8895,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B135" t="s">
         <v>158</v>
@@ -8889,19 +8909,19 @@
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G135">
-        <v>0.18</v>
+        <v>-0.09</v>
       </c>
       <c r="H135" s="1">
-        <v>2.3385355670014599E-2</v>
-      </c>
-      <c r="I135">
-        <v>0.18198268860070599</v>
+        <v>2.3972648087109801E-2</v>
+      </c>
+      <c r="I135" s="1">
+        <v>-9.0244187856146796E-2</v>
       </c>
       <c r="J135" s="1">
         <v>2.4168412226141599E-2</v>
@@ -8917,7 +8937,7 @@
         <v>18</v>
       </c>
       <c r="N135" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O135" t="s">
         <v>20</v>
@@ -8929,7 +8949,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>165</v>
       </c>
@@ -8983,7 +9003,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>212</v>
       </c>
@@ -9037,7 +9057,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>213</v>
       </c>
@@ -9091,7 +9111,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>75</v>
       </c>
@@ -9123,7 +9143,7 @@
         <v>0.13758320912355701</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K139:K202" si="3">(1/J139)^2+3</f>
         <v>55.828603410812256</v>
       </c>
       <c r="L139" t="s">
@@ -9145,12 +9165,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
@@ -9159,26 +9179,26 @@
         <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G140">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="H140" s="1">
-        <v>2.3657235955545999E-2</v>
+        <v>7.1660629258430905E-2</v>
       </c>
       <c r="I140">
-        <v>0.17166666350057899</v>
+        <v>0.41180003447869001</v>
       </c>
       <c r="J140" s="1">
-        <v>2.4361276856704799E-2</v>
+        <v>8.4515425472851693E-2</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="2"/>
-        <v>1687.9999999999995</v>
+        <f t="shared" si="3"/>
+        <v>142.99999999999989</v>
       </c>
       <c r="L140" t="s">
         <v>27</v>
@@ -9196,10 +9216,10 @@
         <v>3</v>
       </c>
       <c r="Q140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>29</v>
       </c>
@@ -9231,7 +9251,7 @@
         <v>6.6944884077356007E-2</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>226.13372327699011</v>
       </c>
       <c r="L141" t="s">
@@ -9253,7 +9273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>37</v>
       </c>
@@ -9285,7 +9305,7 @@
         <v>6.95206222712626E-2</v>
       </c>
       <c r="K142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>209.90581592561452</v>
       </c>
       <c r="L142" t="s">
@@ -9307,7 +9327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>77</v>
       </c>
@@ -9339,7 +9359,7 @@
         <v>0.13772076632045999</v>
       </c>
       <c r="K143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.7231243950663</v>
       </c>
       <c r="L143" t="s">
@@ -9361,7 +9381,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>148</v>
       </c>
@@ -9393,7 +9413,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L144" t="s">
@@ -9415,7 +9435,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>154</v>
       </c>
@@ -9447,7 +9467,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L145" t="s">
@@ -9469,7 +9489,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>182</v>
       </c>
@@ -9501,7 +9521,7 @@
         <v>6.9843029576957802E-2</v>
       </c>
       <c r="K146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208.00000000000011</v>
       </c>
       <c r="L146" t="s">
@@ -9523,43 +9543,43 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B147" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="C147" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="F147" t="s">
         <v>15</v>
       </c>
-      <c r="G147">
-        <v>0.16</v>
-      </c>
-      <c r="H147" s="1">
-        <v>4.17770553407152E-2</v>
-      </c>
-      <c r="I147">
-        <v>0.16138669613152601</v>
-      </c>
-      <c r="J147" s="1">
-        <v>4.2874646285627198E-2</v>
+      <c r="G147" s="2">
+        <v>0.23238050000631399</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0.16243895576030201</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0.23670438807941099</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0.17171149620083001</v>
       </c>
       <c r="K147" s="2">
-        <f t="shared" si="2"/>
-        <v>547.00000000000023</v>
+        <f t="shared" si="3"/>
+        <v>36.915736707047628</v>
       </c>
       <c r="L147" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M147" t="s">
         <v>18</v>
@@ -9571,13 +9591,13 @@
         <v>20</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q147" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>263</v>
       </c>
@@ -9609,7 +9629,7 @@
         <v>8.2818948068219003E-2</v>
       </c>
       <c r="K148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148.79431174735979</v>
       </c>
       <c r="L148" t="s">
@@ -9631,7 +9651,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>248</v>
       </c>
@@ -9663,7 +9683,7 @@
         <v>0.14651995493912301</v>
       </c>
       <c r="K149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.580746812344955</v>
       </c>
       <c r="L149" t="s">
@@ -9685,7 +9705,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>122</v>
       </c>
@@ -9717,7 +9737,7 @@
         <v>8.7158874280957199E-2</v>
       </c>
       <c r="K150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134.63663598230156</v>
       </c>
       <c r="L150" t="s">
@@ -9739,7 +9759,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>93</v>
       </c>
@@ -9771,7 +9791,7 @@
         <v>0.13052855282706699</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61.693357546322233</v>
       </c>
       <c r="L151" t="s">
@@ -9793,7 +9813,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>236</v>
       </c>
@@ -9825,7 +9845,7 @@
         <v>6.6815310478106099E-2</v>
       </c>
       <c r="K152" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="L152" t="s">
@@ -9847,12 +9867,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
@@ -9861,90 +9881,90 @@
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153">
+        <v>0.27</v>
+      </c>
+      <c r="H153" s="1">
+        <v>7.8354250955880805E-2</v>
+      </c>
+      <c r="I153">
+        <v>0.27686382265510001</v>
+      </c>
+      <c r="J153" s="1">
+        <v>8.4515425472851693E-2</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" si="3"/>
+        <v>142.99999999999989</v>
+      </c>
+      <c r="L153" t="s">
+        <v>27</v>
+      </c>
+      <c r="M153" t="s">
+        <v>18</v>
+      </c>
+      <c r="N153" t="s">
+        <v>89</v>
+      </c>
+      <c r="O153" t="s">
+        <v>20</v>
+      </c>
+      <c r="P153">
+        <v>3</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>61</v>
+      </c>
+      <c r="B154" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" t="s">
+        <v>116</v>
+      </c>
+      <c r="F154" t="s">
         <v>91</v>
       </c>
-      <c r="G153">
-        <v>0.15</v>
-      </c>
-      <c r="H153" s="1">
-        <v>1.7755127604499599E-2</v>
-      </c>
-      <c r="I153">
-        <v>0.151140435936467</v>
-      </c>
-      <c r="J153" s="1">
-        <v>1.8163813406137701E-2</v>
-      </c>
-      <c r="K153" s="2">
-        <f t="shared" si="2"/>
-        <v>3033.9999999999832</v>
-      </c>
-      <c r="L153" t="s">
-        <v>23</v>
-      </c>
-      <c r="M153" t="s">
-        <v>24</v>
-      </c>
-      <c r="N153" t="s">
+      <c r="G154">
+        <v>0.26</v>
+      </c>
+      <c r="H154" s="1">
+        <v>5.4564582822836098E-2</v>
+      </c>
+      <c r="I154">
+        <v>0.266108406873654</v>
+      </c>
+      <c r="J154" s="1">
+        <v>5.8520573598065298E-2</v>
+      </c>
+      <c r="K154" s="2">
+        <f t="shared" si="3"/>
+        <v>294.99999999999983</v>
+      </c>
+      <c r="L154" t="s">
+        <v>17</v>
+      </c>
+      <c r="M154" t="s">
+        <v>18</v>
+      </c>
+      <c r="N154" t="s">
         <v>19</v>
       </c>
-      <c r="O153" t="s">
-        <v>20</v>
-      </c>
-      <c r="P153">
-        <v>2</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>51</v>
-      </c>
-      <c r="B154" t="s">
-        <v>99</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>32</v>
-      </c>
-      <c r="E154" t="s">
-        <v>102</v>
-      </c>
-      <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154">
-        <v>0.15</v>
-      </c>
-      <c r="H154" s="1">
-        <v>3.7485413829915201E-2</v>
-      </c>
-      <c r="I154">
-        <v>0.151140435936467</v>
-      </c>
-      <c r="J154" s="1">
-        <v>3.8348249442368497E-2</v>
-      </c>
-      <c r="K154" s="2">
-        <f t="shared" si="2"/>
-        <v>683.0000000000008</v>
-      </c>
-      <c r="L154" t="s">
-        <v>27</v>
-      </c>
-      <c r="M154" t="s">
-        <v>18</v>
-      </c>
-      <c r="N154" t="s">
-        <v>89</v>
-      </c>
       <c r="O154" t="s">
         <v>20</v>
       </c>
@@ -9952,15 +9972,15 @@
         <v>3</v>
       </c>
       <c r="Q154" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
@@ -9969,26 +9989,26 @@
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G155">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="H155" s="1">
-        <v>2.3624622951053401E-2</v>
-      </c>
-      <c r="I155" s="1">
-        <v>0.151140435936467</v>
+        <v>8.0424878879965606E-2</v>
+      </c>
+      <c r="I155">
+        <v>0.223656109021832</v>
       </c>
       <c r="J155" s="1">
-        <v>2.4168412226141599E-2</v>
+        <v>8.4515425472851693E-2</v>
       </c>
       <c r="K155" s="2">
-        <f t="shared" si="2"/>
-        <v>1714.9999999999986</v>
+        <f t="shared" si="3"/>
+        <v>142.99999999999989</v>
       </c>
       <c r="L155" t="s">
         <v>27</v>
@@ -9997,7 +10017,7 @@
         <v>18</v>
       </c>
       <c r="N155" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O155" t="s">
         <v>20</v>
@@ -10006,49 +10026,49 @@
         <v>3</v>
       </c>
       <c r="Q155" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B156" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="C156" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E156" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="F156" t="s">
         <v>15</v>
       </c>
-      <c r="G156">
-        <v>0.15</v>
-      </c>
-      <c r="H156" s="1">
-        <v>4.1909966744200597E-2</v>
-      </c>
-      <c r="I156">
-        <v>0.151140435936467</v>
-      </c>
-      <c r="J156" s="1">
-        <v>4.2874646285627198E-2</v>
+      <c r="G156" s="2">
+        <v>-0.16973737763046201</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0.16535356246031499</v>
+      </c>
+      <c r="I156" s="2">
+        <v>-0.17139623789809599</v>
+      </c>
+      <c r="J156" s="2">
+        <v>0.17025885234976099</v>
       </c>
       <c r="K156" s="2">
-        <f t="shared" si="2"/>
-        <v>547.00000000000023</v>
+        <f t="shared" si="3"/>
+        <v>37.49694185578808</v>
       </c>
       <c r="L156" t="s">
         <v>27</v>
       </c>
       <c r="M156" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N156" t="s">
         <v>34</v>
@@ -10057,13 +10077,13 @@
         <v>20</v>
       </c>
       <c r="P156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q156" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>38</v>
       </c>
@@ -10095,7 +10115,7 @@
         <v>6.9627775631311797E-2</v>
       </c>
       <c r="K157" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>209.26947235512506</v>
       </c>
       <c r="L157" t="s">
@@ -10117,7 +10137,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>177</v>
       </c>
@@ -10149,7 +10169,7 @@
         <v>5.1220251733829998E-2</v>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>384.16813116436242</v>
       </c>
       <c r="L158" t="s">
@@ -10171,7 +10191,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>226</v>
       </c>
@@ -10190,20 +10210,20 @@
       <c r="F159" t="s">
         <v>15</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="2">
         <v>0.14730956928116101</v>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="2">
         <v>0.12667096086361701</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="2">
         <v>0.14838920605613601</v>
       </c>
-      <c r="J159" s="1">
+      <c r="J159" s="2">
         <v>0.12948070633051501</v>
       </c>
       <c r="K159" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62.647175106697404</v>
       </c>
       <c r="L159" t="s">
@@ -10225,7 +10245,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>30</v>
       </c>
@@ -10257,7 +10277,7 @@
         <v>6.7072010096101795E-2</v>
       </c>
       <c r="K160" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>225.28868464544746</v>
       </c>
       <c r="L160" t="s">
@@ -10279,12 +10299,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B161" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C161" t="s">
         <v>15</v>
@@ -10293,52 +10313,52 @@
         <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F161" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G161">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H161" s="1">
-        <v>2.0765780942277701E-2</v>
-      </c>
-      <c r="I161">
-        <v>0.140925576070494</v>
+        <v>8.3974526749825404E-2</v>
+      </c>
+      <c r="I161" s="1">
+        <v>8.0171325037589697E-2</v>
       </c>
       <c r="J161" s="1">
-        <v>2.1180927113706401E-2</v>
+        <v>8.4515425472851693E-2</v>
       </c>
       <c r="K161" s="2">
-        <f t="shared" si="2"/>
-        <v>2231.9999999999941</v>
+        <f t="shared" si="3"/>
+        <v>142.99999999999989</v>
       </c>
       <c r="L161" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M161" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N161" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O161" t="s">
         <v>20</v>
       </c>
       <c r="P161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q161" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B162" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
@@ -10347,32 +10367,32 @@
         <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F162" t="s">
         <v>91</v>
       </c>
       <c r="G162">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H162" s="1">
-        <v>1.7807802663377399E-2</v>
-      </c>
-      <c r="I162">
-        <v>0.140925576070494</v>
+        <v>5.8233822787434802E-2</v>
+      </c>
+      <c r="I162" s="1">
+        <v>7.0114670654325195E-2</v>
       </c>
       <c r="J162" s="1">
-        <v>1.8163813406137701E-2</v>
+        <v>5.8520573598065298E-2</v>
       </c>
       <c r="K162" s="2">
-        <f t="shared" si="2"/>
-        <v>3033.9999999999832</v>
+        <f t="shared" si="3"/>
+        <v>294.99999999999983</v>
       </c>
       <c r="L162" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M162" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N162" t="s">
         <v>19</v>
@@ -10381,19 +10401,19 @@
         <v>20</v>
       </c>
       <c r="P162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q162" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s">
         <v>107</v>
       </c>
-      <c r="B163" t="s">
-        <v>168</v>
-      </c>
       <c r="C163" t="s">
         <v>15</v>
       </c>
@@ -10401,26 +10421,26 @@
         <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F163" t="s">
         <v>15</v>
       </c>
       <c r="G163">
-        <v>0.14000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="H163" s="1">
-        <v>2.8034323081643199E-2</v>
-      </c>
-      <c r="I163" s="1">
-        <v>0.140925576070494</v>
+        <v>2.6648537072830498E-2</v>
+      </c>
+      <c r="I163">
+        <v>0.38842309971829603</v>
       </c>
       <c r="J163" s="1">
-        <v>2.8594780785029798E-2</v>
+        <v>3.08753760547219E-2</v>
       </c>
       <c r="K163" s="2">
-        <f t="shared" si="2"/>
-        <v>1225.9999999999989</v>
+        <f t="shared" si="3"/>
+        <v>1052.0000000000011</v>
       </c>
       <c r="L163" t="s">
         <v>27</v>
@@ -10429,7 +10449,7 @@
         <v>18</v>
       </c>
       <c r="N163" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O163" t="s">
         <v>20</v>
@@ -10438,10 +10458,10 @@
         <v>3</v>
       </c>
       <c r="Q163" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>116</v>
       </c>
@@ -10473,7 +10493,7 @@
         <v>8.11107105653813E-2</v>
       </c>
       <c r="K164" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154.99999999999989</v>
       </c>
       <c r="L164" t="s">
@@ -10495,40 +10515,40 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="B165" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="C165" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E165" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="F165" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H165" s="1">
-        <v>4.2034303218428902E-2</v>
-      </c>
-      <c r="I165" s="1">
-        <v>0.140925576070494</v>
-      </c>
-      <c r="J165" s="1">
-        <v>4.2874646285627198E-2</v>
+      <c r="G165" s="2">
+        <v>-1.00046436056182E-2</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0.130172622535114</v>
+      </c>
+      <c r="I165" s="2">
+        <v>-1.0004977423575701E-2</v>
+      </c>
+      <c r="J165" s="2">
+        <v>0.130185653193857</v>
       </c>
       <c r="K165" s="2">
-        <f t="shared" si="2"/>
-        <v>547.00000000000023</v>
+        <f t="shared" si="3"/>
+        <v>62.002952888145039</v>
       </c>
       <c r="L165" t="s">
         <v>27</v>
@@ -10546,10 +10566,10 @@
         <v>3</v>
       </c>
       <c r="Q165" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>31</v>
       </c>
@@ -10581,7 +10601,7 @@
         <v>6.2940873448117399E-2</v>
       </c>
       <c r="K166" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>255.42622301445809</v>
       </c>
       <c r="L166" t="s">
@@ -10603,7 +10623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>70</v>
       </c>
@@ -10635,7 +10655,7 @@
         <v>2.96277592792605E-2</v>
       </c>
       <c r="K167" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1142.2063187203414</v>
       </c>
       <c r="L167" t="s">
@@ -10657,7 +10677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>234</v>
       </c>
@@ -10689,7 +10709,7 @@
         <v>6.6815310478106099E-2</v>
       </c>
       <c r="K168" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="L168" t="s">
@@ -10711,7 +10731,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>92</v>
       </c>
@@ -10743,7 +10763,7 @@
         <v>0.13074962856351199</v>
       </c>
       <c r="K169" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61.495044059128816</v>
       </c>
       <c r="L169" t="s">
@@ -10765,12 +10785,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
@@ -10779,32 +10799,32 @@
         <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F170" t="s">
-        <v>92</v>
-      </c>
-      <c r="G170" s="1">
-        <v>0.13</v>
+        <v>15</v>
+      </c>
+      <c r="G170">
+        <v>0.21</v>
       </c>
       <c r="H170" s="1">
-        <v>2.02496678896068E-2</v>
-      </c>
-      <c r="I170" s="1">
-        <v>0.130739850028878</v>
+        <v>2.9513771970708699E-2</v>
+      </c>
+      <c r="I170">
+        <v>0.21317134656486</v>
       </c>
       <c r="J170" s="1">
-        <v>2.0597770206089699E-2</v>
+        <v>3.08753760547219E-2</v>
       </c>
       <c r="K170" s="2">
-        <f t="shared" si="2"/>
-        <v>2360.0000000000005</v>
+        <f t="shared" si="3"/>
+        <v>1052.0000000000011</v>
       </c>
       <c r="L170" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M170" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N170" t="s">
         <v>19</v>
@@ -10813,18 +10833,18 @@
         <v>20</v>
       </c>
       <c r="P170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q170" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B171" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C171" t="s">
         <v>15</v>
@@ -10833,52 +10853,52 @@
         <v>15</v>
       </c>
       <c r="E171" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F171" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="G171">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="H171" s="1">
-        <v>2.02496678896068E-2</v>
-      </c>
-      <c r="I171">
-        <v>0.130739850028878</v>
+        <v>3.0764224700924901E-2</v>
+      </c>
+      <c r="I171" s="1">
+        <v>6.00721559210316E-2</v>
       </c>
       <c r="J171" s="1">
-        <v>2.0597770206089699E-2</v>
+        <v>3.08753760547219E-2</v>
       </c>
       <c r="K171" s="2">
-        <f t="shared" si="2"/>
-        <v>2360.0000000000005</v>
+        <f t="shared" si="3"/>
+        <v>1052.0000000000011</v>
       </c>
       <c r="L171" t="s">
         <v>27</v>
       </c>
       <c r="M171" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N171" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O171" t="s">
         <v>20</v>
       </c>
       <c r="P171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q171" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B172" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
@@ -10887,47 +10907,47 @@
         <v>15</v>
       </c>
       <c r="E172" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F172" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G172">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H172" s="1">
-        <v>2.0822969445484701E-2</v>
+        <v>3.08753760547219E-2</v>
       </c>
       <c r="I172">
-        <v>0.130739850028878</v>
+        <v>0</v>
       </c>
       <c r="J172" s="1">
-        <v>2.1180927113706401E-2</v>
+        <v>3.08753760547219E-2</v>
       </c>
       <c r="K172" s="2">
-        <f t="shared" si="2"/>
-        <v>2231.9999999999941</v>
+        <f t="shared" si="3"/>
+        <v>1052.0000000000011</v>
       </c>
       <c r="L172" t="s">
         <v>27</v>
       </c>
       <c r="M172" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N172" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O172" t="s">
         <v>20</v>
       </c>
       <c r="P172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q172" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>178</v>
       </c>
@@ -10959,7 +10979,7 @@
         <v>6.9843029576957802E-2</v>
       </c>
       <c r="K173" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208.00000000000011</v>
       </c>
       <c r="L173" t="s">
@@ -10981,7 +11001,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>163</v>
       </c>
@@ -11013,7 +11033,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K174" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L174" t="s">
@@ -11035,7 +11055,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>208</v>
       </c>
@@ -11067,7 +11087,7 @@
         <v>4.3314808182420998E-2</v>
       </c>
       <c r="K175" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>536</v>
       </c>
       <c r="L175" t="s">
@@ -11089,7 +11109,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>218</v>
       </c>
@@ -11121,7 +11141,7 @@
         <v>4.3314808182420998E-2</v>
       </c>
       <c r="K176" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>536</v>
       </c>
       <c r="L176" t="s">
@@ -11143,7 +11163,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>169</v>
       </c>
@@ -11175,7 +11195,7 @@
         <v>7.8529356293729896E-2</v>
       </c>
       <c r="K177" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165.15708358003977</v>
       </c>
       <c r="L177" t="s">
@@ -11197,7 +11217,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>252</v>
       </c>
@@ -11229,7 +11249,7 @@
         <v>7.5984502473529905E-2</v>
       </c>
       <c r="K178" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>176.20082313394016</v>
       </c>
       <c r="L178" t="s">
@@ -11251,7 +11271,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>28</v>
       </c>
@@ -11283,7 +11303,7 @@
         <v>6.7199627440928306E-2</v>
       </c>
       <c r="K179" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>224.44519915670608</v>
       </c>
       <c r="L179" t="s">
@@ -11305,7 +11325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>25</v>
       </c>
@@ -11337,7 +11357,7 @@
         <v>7.4953168899586101E-2</v>
       </c>
       <c r="K180" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181.0000000000002</v>
       </c>
       <c r="L180" t="s">
@@ -11359,46 +11379,46 @@
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B181" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E181" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G181">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="H181" s="1">
-        <v>2.1066887241895899E-2</v>
+        <v>3.48969069925553E-2</v>
       </c>
       <c r="I181">
-        <v>0.11044691579009699</v>
+        <v>0.30951960420311198</v>
       </c>
       <c r="J181" s="1">
-        <v>2.1324918758878299E-2</v>
+        <v>3.8348249442368497E-2</v>
       </c>
       <c r="K181" s="2">
-        <f t="shared" si="2"/>
-        <v>2202.0000000000041</v>
+        <f t="shared" si="3"/>
+        <v>683.0000000000008</v>
       </c>
       <c r="L181" t="s">
         <v>23</v>
       </c>
       <c r="M181" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N181" t="s">
         <v>19</v>
@@ -11407,13 +11427,13 @@
         <v>20</v>
       </c>
       <c r="P181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q181" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>254</v>
       </c>
@@ -11445,7 +11465,7 @@
         <v>7.6035387341403499E-2</v>
       </c>
       <c r="K182" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>175.96907967176625</v>
       </c>
       <c r="L182" t="s">
@@ -11467,7 +11487,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>4</v>
       </c>
@@ -11499,7 +11519,7 @@
         <v>3.5533452725935097E-2</v>
       </c>
       <c r="K183" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>794.99999999999898</v>
       </c>
       <c r="L183" t="s">
@@ -11521,7 +11541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>114</v>
       </c>
@@ -11553,7 +11573,7 @@
         <v>8.11107105653813E-2</v>
       </c>
       <c r="K184" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154.99999999999989</v>
       </c>
       <c r="L184" t="s">
@@ -11575,7 +11595,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>143</v>
       </c>
@@ -11607,7 +11627,7 @@
         <v>6.6226617853252207E-2</v>
       </c>
       <c r="K185" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230.99999999999989</v>
       </c>
       <c r="L185" t="s">
@@ -11629,7 +11649,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>203</v>
       </c>
@@ -11661,7 +11681,7 @@
         <v>0.1</v>
       </c>
       <c r="K186" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="L186" t="s">
@@ -11683,7 +11703,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>219</v>
       </c>
@@ -11715,7 +11735,7 @@
         <v>5.7831493196624E-2</v>
       </c>
       <c r="K187" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302.00000000000023</v>
       </c>
       <c r="L187" t="s">
@@ -11737,7 +11757,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>27</v>
       </c>
@@ -11769,7 +11789,7 @@
         <v>6.7252897541464907E-2</v>
       </c>
       <c r="K188" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>224.09453066310226</v>
       </c>
       <c r="L188" t="s">
@@ -11791,7 +11811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>23</v>
       </c>
@@ -11823,7 +11843,7 @@
         <v>5.8678136156606199E-2</v>
       </c>
       <c r="K189" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>293.43394833601371</v>
       </c>
       <c r="L189" t="s">
@@ -11845,7 +11865,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>120</v>
       </c>
@@ -11877,7 +11897,7 @@
         <v>0.228866076626592</v>
       </c>
       <c r="K190" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.091372462132504</v>
       </c>
       <c r="L190" t="s">
@@ -11899,7 +11919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>255</v>
       </c>
@@ -11931,7 +11951,7 @@
         <v>0.13736056394868901</v>
       </c>
       <c r="K191" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.000000000000007</v>
       </c>
       <c r="L191" t="s">
@@ -11953,7 +11973,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>72</v>
       </c>
@@ -11985,7 +12005,7 @@
         <v>4.3153185200210303E-2</v>
       </c>
       <c r="K192" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>540.00000000000011</v>
       </c>
       <c r="L192" t="s">
@@ -12007,40 +12027,40 @@
         <v>132</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
+        <v>50</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>32</v>
+      </c>
+      <c r="E193" t="s">
         <v>100</v>
       </c>
-      <c r="B193" t="s">
-        <v>162</v>
-      </c>
-      <c r="C193" t="s">
-        <v>15</v>
-      </c>
-      <c r="D193" t="s">
-        <v>15</v>
-      </c>
-      <c r="E193" t="s">
-        <v>163</v>
-      </c>
       <c r="F193" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G193">
-        <v>0.09</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H193" s="1">
-        <v>2.4163950514165498E-2</v>
-      </c>
-      <c r="I193" s="1">
-        <v>9.0244187856146796E-2</v>
+        <v>3.5123161664265302E-2</v>
+      </c>
+      <c r="I193">
+        <v>0.29856626366017802</v>
       </c>
       <c r="J193" s="1">
-        <v>2.4361276856704799E-2</v>
+        <v>3.8348249442368497E-2</v>
       </c>
       <c r="K193" s="2">
-        <f t="shared" si="2"/>
-        <v>1687.9999999999995</v>
+        <f t="shared" si="3"/>
+        <v>683.0000000000008</v>
       </c>
       <c r="L193" t="s">
         <v>27</v>
@@ -12058,10 +12078,10 @@
         <v>3</v>
       </c>
       <c r="Q193" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>217</v>
       </c>
@@ -12093,7 +12113,7 @@
         <v>5.7831493196624E-2</v>
       </c>
       <c r="K194" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302.00000000000023</v>
       </c>
       <c r="L194" t="s">
@@ -12115,7 +12135,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>222</v>
       </c>
@@ -12147,7 +12167,7 @@
         <v>5.5048188256317999E-2</v>
       </c>
       <c r="K195" s="2">
-        <f t="shared" ref="K195:K258" si="3">(1/J195)^2+3</f>
+        <f t="shared" si="3"/>
         <v>333.00000000000034</v>
       </c>
       <c r="L195" t="s">
@@ -12169,43 +12189,43 @@
         <v>343</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B196" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C196" t="s">
         <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E196" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F196" t="s">
         <v>15</v>
       </c>
       <c r="G196">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="H196" s="1">
-        <v>8.3974526749825404E-2</v>
-      </c>
-      <c r="I196" s="1">
-        <v>8.0171325037589697E-2</v>
+        <v>3.6139390274488099E-2</v>
+      </c>
+      <c r="I196">
+        <v>0.244774112659353</v>
       </c>
       <c r="J196" s="1">
-        <v>8.4515425472851693E-2</v>
+        <v>3.8348249442368497E-2</v>
       </c>
       <c r="K196" s="2">
         <f t="shared" si="3"/>
-        <v>142.99999999999989</v>
+        <v>683.0000000000008</v>
       </c>
       <c r="L196" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M196" t="s">
         <v>18</v>
@@ -12220,49 +12240,49 @@
         <v>3</v>
       </c>
       <c r="Q196" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B197" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E197" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F197" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G197">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="H197" s="1">
-        <v>2.4205364684821901E-2</v>
-      </c>
-      <c r="I197" s="1">
-        <v>8.0171325037589697E-2</v>
+        <v>3.6319627046867198E-2</v>
+      </c>
+      <c r="I197">
+        <v>0.234189466759367</v>
       </c>
       <c r="J197" s="1">
-        <v>2.4361276856704799E-2</v>
+        <v>3.8348249442368497E-2</v>
       </c>
       <c r="K197" s="2">
         <f t="shared" si="3"/>
-        <v>1687.9999999999995</v>
+        <v>683.0000000000008</v>
       </c>
       <c r="L197" t="s">
         <v>27</v>
       </c>
       <c r="M197" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N197" t="s">
         <v>19</v>
@@ -12274,52 +12294,52 @@
         <v>3</v>
       </c>
       <c r="Q197" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B198" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E198" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
       </c>
       <c r="G198">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="H198" s="1">
-        <v>2.4205364684821901E-2</v>
-      </c>
-      <c r="I198" s="1">
-        <v>8.0171325037589697E-2</v>
+        <v>3.7485413829915201E-2</v>
+      </c>
+      <c r="I198">
+        <v>0.151140435936467</v>
       </c>
       <c r="J198" s="1">
-        <v>2.4361276856704799E-2</v>
+        <v>3.8348249442368497E-2</v>
       </c>
       <c r="K198" s="2">
         <f t="shared" si="3"/>
-        <v>1687.9999999999995</v>
+        <v>683.0000000000008</v>
       </c>
       <c r="L198" t="s">
         <v>27</v>
       </c>
       <c r="M198" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N198" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O198" t="s">
         <v>20</v>
@@ -12328,49 +12348,49 @@
         <v>3</v>
       </c>
       <c r="Q198" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C199" t="s">
         <v>15</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E199" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F199" t="s">
         <v>15</v>
       </c>
-      <c r="G199">
-        <v>0.08</v>
+      <c r="G199" s="1">
+        <v>0.06</v>
       </c>
       <c r="H199" s="1">
-        <v>2.8400165699599501E-2</v>
+        <v>3.8210195744376001E-2</v>
       </c>
       <c r="I199" s="1">
-        <v>8.0171325037589697E-2</v>
+        <v>6.00721559210316E-2</v>
       </c>
       <c r="J199" s="1">
-        <v>2.8583097523751499E-2</v>
+        <v>3.8348249442368497E-2</v>
       </c>
       <c r="K199" s="2">
         <f t="shared" si="3"/>
-        <v>1226.999999999998</v>
+        <v>683.0000000000008</v>
       </c>
       <c r="L199" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M199" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N199" t="s">
         <v>89</v>
@@ -12382,10 +12402,10 @@
         <v>3</v>
       </c>
       <c r="Q199" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>207</v>
       </c>
@@ -12439,7 +12459,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>137</v>
       </c>
@@ -12493,7 +12513,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>69</v>
       </c>
@@ -12547,12 +12567,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B203" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C203" t="s">
         <v>15</v>
@@ -12561,32 +12581,32 @@
         <v>15</v>
       </c>
       <c r="E203" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F203" t="s">
         <v>91</v>
       </c>
       <c r="G203">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="H203" s="1">
-        <v>5.8233822787434802E-2</v>
-      </c>
-      <c r="I203" s="1">
-        <v>7.0114670654325195E-2</v>
+        <v>1.7755127604499599E-2</v>
+      </c>
+      <c r="I203">
+        <v>0.151140435936467</v>
       </c>
       <c r="J203" s="1">
-        <v>5.8520573598065298E-2</v>
+        <v>1.8163813406137701E-2</v>
       </c>
       <c r="K203" s="2">
-        <f t="shared" si="3"/>
-        <v>294.99999999999983</v>
+        <f t="shared" ref="K203:K266" si="4">(1/J203)^2+3</f>
+        <v>3033.9999999999832</v>
       </c>
       <c r="L203" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M203" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N203" t="s">
         <v>19</v>
@@ -12595,13 +12615,13 @@
         <v>20</v>
       </c>
       <c r="P203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q203" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>160</v>
       </c>
@@ -12633,7 +12653,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K204" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L204" t="s">
@@ -12655,7 +12675,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>215</v>
       </c>
@@ -12687,7 +12707,7 @@
         <v>5.7831493196624E-2</v>
       </c>
       <c r="K205" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>302.00000000000023</v>
       </c>
       <c r="L205" t="s">
@@ -12709,46 +12729,46 @@
         <v>327</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B206" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C206" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D206" t="s">
         <v>32</v>
       </c>
       <c r="E206" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="F206" t="s">
         <v>15</v>
       </c>
-      <c r="G206" s="1">
-        <v>6.5745978697184806E-2</v>
-      </c>
-      <c r="H206" s="1">
-        <v>0.109835297645431</v>
-      </c>
-      <c r="I206" s="1">
-        <v>6.5840954878297303E-2</v>
-      </c>
-      <c r="J206" s="1">
-        <v>0.11031212552717901</v>
+      <c r="G206" s="2">
+        <v>-0.191538071371774</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0.124257119742721</v>
+      </c>
+      <c r="I206" s="2">
+        <v>-0.193933329744126</v>
+      </c>
+      <c r="J206" s="2">
+        <v>0.12898932971292501</v>
       </c>
       <c r="K206" s="2">
-        <f t="shared" si="3"/>
-        <v>85.177607740030922</v>
+        <f t="shared" si="4"/>
+        <v>63.102484906865101</v>
       </c>
       <c r="L206" t="s">
         <v>27</v>
       </c>
       <c r="M206" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N206" t="s">
         <v>34</v>
@@ -12760,15 +12780,15 @@
         <v>3</v>
       </c>
       <c r="Q206" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C207" t="s">
         <v>15</v>
@@ -12777,29 +12797,29 @@
         <v>15</v>
       </c>
       <c r="E207" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F207" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="G207">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H207" s="1">
-        <v>2.12481490513464E-2</v>
-      </c>
-      <c r="I207" s="1">
-        <v>6.00721559210316E-2</v>
+        <v>2.0765780942277701E-2</v>
+      </c>
+      <c r="I207">
+        <v>0.140925576070494</v>
       </c>
       <c r="J207" s="1">
-        <v>2.1324918758878299E-2</v>
+        <v>2.1180927113706401E-2</v>
       </c>
       <c r="K207" s="2">
-        <f t="shared" si="3"/>
-        <v>2202.0000000000041</v>
+        <f t="shared" si="4"/>
+        <v>2231.9999999999941</v>
       </c>
       <c r="L207" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M207" t="s">
         <v>24</v>
@@ -12817,66 +12837,66 @@
         <v>90</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C208" t="s">
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E208" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F208" t="s">
-        <v>15</v>
-      </c>
-      <c r="G208" s="1">
-        <v>0.06</v>
+        <v>91</v>
+      </c>
+      <c r="G208">
+        <v>0.14000000000000001</v>
       </c>
       <c r="H208" s="1">
-        <v>3.8210195744376001E-2</v>
-      </c>
-      <c r="I208" s="1">
-        <v>6.00721559210316E-2</v>
+        <v>1.7807802663377399E-2</v>
+      </c>
+      <c r="I208">
+        <v>0.140925576070494</v>
       </c>
       <c r="J208" s="1">
-        <v>3.8348249442368497E-2</v>
+        <v>1.8163813406137701E-2</v>
       </c>
       <c r="K208" s="2">
-        <f t="shared" si="3"/>
-        <v>683.0000000000008</v>
+        <f t="shared" si="4"/>
+        <v>3033.9999999999832</v>
       </c>
       <c r="L208" t="s">
         <v>27</v>
       </c>
       <c r="M208" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N208" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O208" t="s">
         <v>20</v>
       </c>
       <c r="P208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q208" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B209" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
@@ -12885,47 +12905,47 @@
         <v>15</v>
       </c>
       <c r="E209" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F209" t="s">
-        <v>15</v>
-      </c>
-      <c r="G209">
-        <v>0.06</v>
+        <v>92</v>
+      </c>
+      <c r="G209" s="1">
+        <v>0.13</v>
       </c>
       <c r="H209" s="1">
-        <v>3.0764224700924901E-2</v>
+        <v>2.02496678896068E-2</v>
       </c>
       <c r="I209" s="1">
-        <v>6.00721559210316E-2</v>
+        <v>0.130739850028878</v>
       </c>
       <c r="J209" s="1">
-        <v>3.08753760547219E-2</v>
+        <v>2.0597770206089699E-2</v>
       </c>
       <c r="K209" s="2">
-        <f t="shared" si="3"/>
-        <v>1052.0000000000011</v>
+        <f t="shared" si="4"/>
+        <v>2360.0000000000005</v>
       </c>
       <c r="L209" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M209" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N209" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O209" t="s">
         <v>20</v>
       </c>
       <c r="P209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q209" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12957,7 +12977,7 @@
         <v>5.7831493196624E-2</v>
       </c>
       <c r="K210" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>302.00000000000023</v>
       </c>
       <c r="L210" t="s">
@@ -12979,7 +12999,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -13011,7 +13031,7 @@
         <v>4.3314808182420998E-2</v>
       </c>
       <c r="K211" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
       <c r="L211" t="s">
@@ -13033,7 +13053,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>216</v>
       </c>
@@ -13065,7 +13085,7 @@
         <v>4.3314808182420998E-2</v>
       </c>
       <c r="K212" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
       <c r="L212" t="s">
@@ -13087,7 +13107,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>240</v>
       </c>
@@ -13119,7 +13139,7 @@
         <v>7.3164162583516504E-2</v>
       </c>
       <c r="K213" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189.81131937476579</v>
       </c>
       <c r="L213" t="s">
@@ -13141,7 +13161,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>134</v>
       </c>
@@ -13173,7 +13193,7 @@
         <v>0.16000745563214699</v>
       </c>
       <c r="K214" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.058859809054496</v>
       </c>
       <c r="L214" t="s">
@@ -13195,7 +13215,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>49</v>
       </c>
@@ -13227,7 +13247,7 @@
         <v>9.7525388272252406E-2</v>
       </c>
       <c r="K215" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108.13918929865869</v>
       </c>
       <c r="L215" t="s">
@@ -13249,7 +13269,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>220</v>
       </c>
@@ -13281,7 +13301,7 @@
         <v>4.3314808182420998E-2</v>
       </c>
       <c r="K216" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
       <c r="L216" t="s">
@@ -13303,7 +13323,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>221</v>
       </c>
@@ -13335,7 +13355,7 @@
         <v>5.7831493196624E-2</v>
       </c>
       <c r="K217" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>302.00000000000023</v>
       </c>
       <c r="L217" t="s">
@@ -13357,7 +13377,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>9</v>
       </c>
@@ -13389,7 +13409,7 @@
         <v>8.1598738438245597E-2</v>
       </c>
       <c r="K218" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.18726591760293</v>
       </c>
       <c r="L218" t="s">
@@ -13411,7 +13431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>133</v>
       </c>
@@ -13443,7 +13463,7 @@
         <v>0.16002835759982201</v>
       </c>
       <c r="K219" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.048657195964651</v>
       </c>
       <c r="L219" t="s">
@@ -13465,7 +13485,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>265</v>
       </c>
@@ -13497,7 +13517,7 @@
         <v>0.129018373410696</v>
       </c>
       <c r="K220" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63.075428265513395</v>
       </c>
       <c r="L220" t="s">
@@ -13519,46 +13539,46 @@
         <v>419</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B221" t="s">
         <v>287</v>
       </c>
       <c r="C221" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D221" t="s">
         <v>15</v>
       </c>
       <c r="E221" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F221" t="s">
         <v>15</v>
       </c>
-      <c r="G221" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H221" s="1">
-        <v>6.4446442880891394E-2</v>
-      </c>
-      <c r="I221" s="1">
-        <v>4.0021353836768199E-2</v>
-      </c>
-      <c r="J221" s="1">
-        <v>6.4549722436790302E-2</v>
+      <c r="G221" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H221" s="2">
+        <v>4.17770553407152E-2</v>
+      </c>
+      <c r="I221" s="2">
+        <v>0.16138669613152601</v>
+      </c>
+      <c r="J221" s="2">
+        <v>4.2874646285627198E-2</v>
       </c>
       <c r="K221" s="2">
-        <f t="shared" si="3"/>
-        <v>242.99999999999986</v>
+        <f t="shared" si="4"/>
+        <v>547.00000000000023</v>
       </c>
       <c r="L221" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M221" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N221" t="s">
         <v>34</v>
@@ -13573,7 +13593,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>249</v>
       </c>
@@ -13605,7 +13625,7 @@
         <v>0.116184458119479</v>
       </c>
       <c r="K222" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77.080503666311444</v>
       </c>
       <c r="L222" t="s">
@@ -13627,7 +13647,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>173</v>
       </c>
@@ -13659,7 +13679,7 @@
         <v>3.7164707312358297E-2</v>
       </c>
       <c r="K223" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>727.00000000000068</v>
       </c>
       <c r="L223" t="s">
@@ -13681,7 +13701,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>198</v>
       </c>
@@ -13713,7 +13733,7 @@
         <v>0.139984738215919</v>
       </c>
       <c r="K224" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.031533731805546</v>
       </c>
       <c r="L224" t="s">
@@ -13735,7 +13755,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8</v>
       </c>
@@ -13767,7 +13787,7 @@
         <v>9.2819264517473299E-2</v>
       </c>
       <c r="K225" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.07100755251324</v>
       </c>
       <c r="L225" t="s">
@@ -13789,46 +13809,46 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="B226" t="s">
-        <v>417</v>
+        <v>287</v>
       </c>
       <c r="C226" t="s">
-        <v>421</v>
+        <v>288</v>
       </c>
       <c r="D226" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E226" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="F226" t="s">
         <v>15</v>
       </c>
-      <c r="G226">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="H226" s="1">
-        <v>0.18232357799999999</v>
-      </c>
-      <c r="I226" s="1">
-        <v>3.31120961829489E-2</v>
-      </c>
-      <c r="J226" s="1">
-        <v>0.18252355262949599</v>
+      <c r="G226" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H226" s="2">
+        <v>4.1909966744200597E-2</v>
+      </c>
+      <c r="I226" s="2">
+        <v>0.151140435936467</v>
+      </c>
+      <c r="J226" s="2">
+        <v>4.2874646285627198E-2</v>
       </c>
       <c r="K226" s="2">
-        <f t="shared" si="3"/>
-        <v>33.016646693914737</v>
+        <f t="shared" si="4"/>
+        <v>547.00000000000023</v>
       </c>
       <c r="L226" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="M226" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N226" t="s">
         <v>34</v>
@@ -13840,10 +13860,10 @@
         <v>3</v>
       </c>
       <c r="Q226" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>200</v>
       </c>
@@ -13875,7 +13895,7 @@
         <v>0.13999252121440101</v>
       </c>
       <c r="K227" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.0258596099968</v>
       </c>
       <c r="L227" t="s">
@@ -13897,12 +13917,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="B228" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="C228" t="s">
         <v>15</v>
@@ -13911,47 +13931,47 @@
         <v>15</v>
       </c>
       <c r="E228" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="F228" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="G228">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="H228" s="1">
-        <v>2.8569045482323301E-2</v>
-      </c>
-      <c r="I228" s="1">
-        <v>3.00090048631265E-2</v>
+        <v>2.02496678896068E-2</v>
+      </c>
+      <c r="I228">
+        <v>0.130739850028878</v>
       </c>
       <c r="J228" s="1">
-        <v>2.8594780785029798E-2</v>
+        <v>2.0597770206089699E-2</v>
       </c>
       <c r="K228" s="2">
-        <f t="shared" si="3"/>
-        <v>1225.9999999999989</v>
+        <f t="shared" si="4"/>
+        <v>2360.0000000000005</v>
       </c>
       <c r="L228" t="s">
         <v>27</v>
       </c>
       <c r="M228" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N228" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O228" t="s">
         <v>20</v>
       </c>
       <c r="P228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q228" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>179</v>
       </c>
@@ -13983,7 +14003,7 @@
         <v>6.9843029576957802E-2</v>
       </c>
       <c r="K229" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208.00000000000011</v>
       </c>
       <c r="L229" t="s">
@@ -14005,46 +14025,46 @@
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B230" t="s">
         <v>287</v>
       </c>
       <c r="C230" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D230" t="s">
         <v>15</v>
       </c>
       <c r="E230" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F230" t="s">
         <v>15</v>
       </c>
-      <c r="G230">
-        <v>0.03</v>
-      </c>
-      <c r="H230" s="1">
-        <v>6.4491627686597205E-2</v>
-      </c>
-      <c r="I230" s="1">
-        <v>3.00090048631265E-2</v>
-      </c>
-      <c r="J230" s="1">
-        <v>6.4549722436790302E-2</v>
+      <c r="G230" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H230" s="2">
+        <v>4.2034303218428902E-2</v>
+      </c>
+      <c r="I230" s="2">
+        <v>0.140925576070494</v>
+      </c>
+      <c r="J230" s="2">
+        <v>4.2874646285627198E-2</v>
       </c>
       <c r="K230" s="2">
-        <f t="shared" si="3"/>
-        <v>242.99999999999986</v>
+        <f t="shared" si="4"/>
+        <v>547.00000000000023</v>
       </c>
       <c r="L230" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M230" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N230" t="s">
         <v>34</v>
@@ -14059,7 +14079,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>206</v>
       </c>
@@ -14091,7 +14111,7 @@
         <v>3.3903175181040503E-2</v>
       </c>
       <c r="K231" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>873.0000000000008</v>
       </c>
       <c r="L231" t="s">
@@ -14113,7 +14133,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>214</v>
       </c>
@@ -14145,7 +14165,7 @@
         <v>4.3314808182420998E-2</v>
       </c>
       <c r="K232" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
       <c r="L232" t="s">
@@ -14167,7 +14187,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>21</v>
       </c>
@@ -14199,7 +14219,7 @@
         <v>8.7025263385626397E-2</v>
       </c>
       <c r="K233" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>135.04115277904367</v>
       </c>
       <c r="L233" t="s">
@@ -14221,7 +14241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>172</v>
       </c>
@@ -14253,7 +14273,7 @@
         <v>3.7164707312358297E-2</v>
       </c>
       <c r="K234" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>727.00000000000068</v>
       </c>
       <c r="L234" t="s">
@@ -14275,7 +14295,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>161</v>
       </c>
@@ -14307,7 +14327,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K235" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L235" t="s">
@@ -14329,7 +14349,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>162</v>
       </c>
@@ -14361,7 +14381,7 @@
         <v>5.4473471070284302E-2</v>
       </c>
       <c r="K236" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>340.0000000000004</v>
       </c>
       <c r="L236" t="s">
@@ -14383,9 +14403,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B237" t="s">
         <v>287</v>
@@ -14397,25 +14417,25 @@
         <v>15</v>
       </c>
       <c r="E237" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F237" t="s">
         <v>15</v>
       </c>
-      <c r="G237" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="H237" s="1">
-        <v>6.4523902547815606E-2</v>
-      </c>
-      <c r="I237" s="1">
-        <v>2.00026673068496E-2</v>
-      </c>
-      <c r="J237" s="1">
+      <c r="G237" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H237" s="2">
+        <v>6.4446442880891394E-2</v>
+      </c>
+      <c r="I237" s="2">
+        <v>4.0021353836768199E-2</v>
+      </c>
+      <c r="J237" s="2">
         <v>6.4549722436790302E-2</v>
       </c>
       <c r="K237" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>242.99999999999986</v>
       </c>
       <c r="L237" t="s">
@@ -14437,7 +14457,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>253</v>
       </c>
@@ -14469,7 +14489,7 @@
         <v>7.6242537989040807E-2</v>
       </c>
       <c r="K238" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>175.03044405053063</v>
       </c>
       <c r="L238" t="s">
@@ -14491,7 +14511,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>205</v>
       </c>
@@ -14523,7 +14543,7 @@
         <v>5.17087689995019E-2</v>
       </c>
       <c r="K239" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>377.00000000000023</v>
       </c>
       <c r="L239" t="s">
@@ -14545,12 +14565,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
@@ -14559,29 +14579,29 @@
         <v>15</v>
       </c>
       <c r="E240" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F240" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G240">
-        <v>1.4999999999999999E-2</v>
+        <v>0.13</v>
       </c>
       <c r="H240" s="1">
-        <v>2.4162974333390701E-2</v>
-      </c>
-      <c r="I240" s="1">
-        <v>1.50011251518994E-2</v>
+        <v>2.0822969445484701E-2</v>
+      </c>
+      <c r="I240">
+        <v>0.130739850028878</v>
       </c>
       <c r="J240" s="1">
-        <v>2.4168412226141599E-2</v>
+        <v>2.1180927113706401E-2</v>
       </c>
       <c r="K240" s="2">
-        <f t="shared" si="3"/>
-        <v>1714.9999999999986</v>
+        <f t="shared" si="4"/>
+        <v>2231.9999999999941</v>
       </c>
       <c r="L240" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M240" t="s">
         <v>24</v>
@@ -14593,49 +14613,49 @@
         <v>20</v>
       </c>
       <c r="P240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q240" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="B241" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="C241" t="s">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="D241" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E241" t="s">
-        <v>370</v>
+        <v>289</v>
       </c>
       <c r="F241" t="s">
         <v>15</v>
       </c>
-      <c r="G241" s="1">
-        <v>1.47224692839925E-2</v>
-      </c>
-      <c r="H241" s="1">
-        <v>0.110401607016099</v>
-      </c>
-      <c r="I241" s="1">
-        <v>1.4723533126162199E-2</v>
-      </c>
-      <c r="J241" s="1">
-        <v>0.110425541873969</v>
+      <c r="G241" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H241" s="2">
+        <v>6.4491627686597205E-2</v>
+      </c>
+      <c r="I241" s="2">
+        <v>3.00090048631265E-2</v>
+      </c>
+      <c r="J241" s="2">
+        <v>6.4549722436790302E-2</v>
       </c>
       <c r="K241" s="2">
-        <f t="shared" si="3"/>
-        <v>85.008887758390017</v>
+        <f t="shared" si="4"/>
+        <v>242.99999999999986</v>
       </c>
       <c r="L241" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M241" t="s">
         <v>18</v>
@@ -14650,12 +14670,12 @@
         <v>3</v>
       </c>
       <c r="Q241" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B242" t="s">
         <v>287</v>
@@ -14667,25 +14687,25 @@
         <v>15</v>
       </c>
       <c r="E242" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F242" t="s">
         <v>15</v>
       </c>
-      <c r="G242">
-        <v>0.01</v>
-      </c>
-      <c r="H242" s="1">
-        <v>6.4543267464546597E-2</v>
-      </c>
-      <c r="I242" s="1">
-        <v>1.0000333353334801E-2</v>
-      </c>
-      <c r="J242" s="1">
+      <c r="G242" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H242" s="2">
+        <v>6.4523902547815606E-2</v>
+      </c>
+      <c r="I242" s="2">
+        <v>2.00026673068496E-2</v>
+      </c>
+      <c r="J242" s="2">
         <v>6.4549722436790302E-2</v>
       </c>
       <c r="K242" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>242.99999999999986</v>
       </c>
       <c r="L242" t="s">
@@ -14707,7 +14727,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>211</v>
       </c>
@@ -14739,7 +14759,7 @@
         <v>5.7831493196624E-2</v>
       </c>
       <c r="K243" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>302.00000000000023</v>
       </c>
       <c r="L243" t="s">
@@ -14761,12 +14781,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B244" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C244" t="s">
         <v>15</v>
@@ -14775,55 +14795,55 @@
         <v>15</v>
       </c>
       <c r="E244" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F244" t="s">
         <v>15</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H244" s="1">
-        <v>3.08753760547219E-2</v>
+        <v>2.1066887241895899E-2</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>0.11044691579009699</v>
       </c>
       <c r="J244" s="1">
-        <v>3.08753760547219E-2</v>
+        <v>2.1324918758878299E-2</v>
       </c>
       <c r="K244" s="2">
-        <f t="shared" si="3"/>
-        <v>1052.0000000000011</v>
+        <f t="shared" si="4"/>
+        <v>2202.0000000000041</v>
       </c>
       <c r="L244" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M244" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N244" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O244" t="s">
         <v>20</v>
       </c>
       <c r="P244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q244" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B245" t="s">
         <v>287</v>
       </c>
       <c r="C245" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D245" t="s">
         <v>15</v>
@@ -14834,21 +14854,21 @@
       <c r="F245" t="s">
         <v>15</v>
       </c>
-      <c r="G245">
-        <v>0</v>
-      </c>
-      <c r="H245" s="1">
-        <v>4.2874646285627198E-2</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245" s="1">
-        <v>4.2874646285627198E-2</v>
+      <c r="G245" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H245" s="2">
+        <v>6.4543267464546597E-2</v>
+      </c>
+      <c r="I245" s="2">
+        <v>1.0000333353334801E-2</v>
+      </c>
+      <c r="J245" s="2">
+        <v>6.4549722436790302E-2</v>
       </c>
       <c r="K245" s="2">
-        <f t="shared" si="3"/>
-        <v>547.00000000000023</v>
+        <f t="shared" si="4"/>
+        <v>242.99999999999986</v>
       </c>
       <c r="L245" t="s">
         <v>27</v>
@@ -14869,46 +14889,46 @@
         <v>290</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="B246" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="C246" t="s">
-        <v>379</v>
+        <v>288</v>
       </c>
       <c r="D246" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E246" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="F246" t="s">
         <v>15</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="2">
         <v>0</v>
       </c>
-      <c r="H246">
-        <v>0.122474487139159</v>
-      </c>
-      <c r="I246">
+      <c r="H246" s="2">
+        <v>4.2874646285627198E-2</v>
+      </c>
+      <c r="I246" s="2">
         <v>0</v>
       </c>
-      <c r="J246" s="1">
-        <v>0.122474487139159</v>
+      <c r="J246" s="2">
+        <v>4.2874646285627198E-2</v>
       </c>
       <c r="K246" s="2">
-        <f t="shared" si="3"/>
-        <v>69.666666666666558</v>
+        <f t="shared" si="4"/>
+        <v>547.00000000000023</v>
       </c>
       <c r="L246" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M246" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N246" t="s">
         <v>34</v>
@@ -14917,13 +14937,13 @@
         <v>20</v>
       </c>
       <c r="P246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q246" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>268</v>
       </c>
@@ -14955,7 +14975,7 @@
         <v>0.16012815380508699</v>
       </c>
       <c r="K247" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.000000000000071</v>
       </c>
       <c r="L247" t="s">
@@ -14977,7 +14997,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>244</v>
       </c>
@@ -15009,7 +15029,7 @@
         <v>9.1669849702821105E-2</v>
       </c>
       <c r="K248" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.00000000000006</v>
       </c>
       <c r="L248" t="s">
@@ -15031,46 +15051,46 @@
         <v>381</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="B249" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="C249" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="D249" t="s">
         <v>32</v>
       </c>
       <c r="E249" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="F249" t="s">
         <v>15</v>
       </c>
-      <c r="G249" s="1">
-        <v>-1.00046436056182E-2</v>
-      </c>
-      <c r="H249" s="1">
-        <v>0.130172622535114</v>
-      </c>
-      <c r="I249" s="1">
-        <v>-1.0004977423575701E-2</v>
-      </c>
-      <c r="J249" s="1">
-        <v>0.130185653193857</v>
+      <c r="G249" s="2">
+        <v>0.45471427033982198</v>
+      </c>
+      <c r="H249" s="2">
+        <v>0.118761434035615</v>
+      </c>
+      <c r="I249" s="2">
+        <v>0.49062742533123699</v>
+      </c>
+      <c r="J249" s="2">
+        <v>0.14971785683199801</v>
       </c>
       <c r="K249" s="2">
-        <f t="shared" si="3"/>
-        <v>62.002952888145039</v>
+        <f t="shared" si="4"/>
+        <v>47.612113313670129</v>
       </c>
       <c r="L249" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M249" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N249" t="s">
         <v>34</v>
@@ -15082,10 +15102,10 @@
         <v>3</v>
       </c>
       <c r="Q249" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>140</v>
       </c>
@@ -15104,20 +15124,20 @@
       <c r="F250" t="s">
         <v>15</v>
       </c>
-      <c r="G250" s="1">
+      <c r="G250" s="2">
         <v>-1.22028373675277E-2</v>
       </c>
-      <c r="H250" s="1">
+      <c r="H250" s="2">
         <v>0.15808445300271701</v>
       </c>
-      <c r="I250" s="1">
+      <c r="I250" s="2">
         <v>-1.22034431267292E-2</v>
       </c>
-      <c r="J250" s="1">
+      <c r="J250" s="2">
         <v>0.15810799674432099</v>
       </c>
       <c r="K250" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.002978406552579</v>
       </c>
       <c r="L250" t="s">
@@ -15139,7 +15159,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>117</v>
       </c>
@@ -15171,7 +15191,7 @@
         <v>0.12124730730792201</v>
       </c>
       <c r="K251" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71.023002114165067</v>
       </c>
       <c r="L251" t="s">
@@ -15193,7 +15213,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>224</v>
       </c>
@@ -15225,7 +15245,7 @@
         <v>5.5048188256317999E-2</v>
       </c>
       <c r="K252" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>333.00000000000034</v>
       </c>
       <c r="L252" t="s">
@@ -15247,7 +15267,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>136</v>
       </c>
@@ -15279,7 +15299,7 @@
         <v>0.14891439905554199</v>
       </c>
       <c r="K253" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.094815408581773</v>
       </c>
       <c r="L253" t="s">
@@ -15301,7 +15321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>119</v>
       </c>
@@ -15333,7 +15353,7 @@
         <v>0.12106809835016701</v>
       </c>
       <c r="K254" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71.22453090237579</v>
       </c>
       <c r="L254" t="s">
@@ -15355,12 +15375,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B255" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C255" t="s">
         <v>15</v>
@@ -15369,32 +15389,32 @@
         <v>15</v>
       </c>
       <c r="E255" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="F255" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G255">
-        <v>-0.09</v>
+        <v>0.06</v>
       </c>
       <c r="H255" s="1">
-        <v>2.3972648087109801E-2</v>
+        <v>2.12481490513464E-2</v>
       </c>
       <c r="I255" s="1">
-        <v>-9.0244187856146796E-2</v>
+        <v>6.00721559210316E-2</v>
       </c>
       <c r="J255" s="1">
-        <v>2.4168412226141599E-2</v>
+        <v>2.1324918758878299E-2</v>
       </c>
       <c r="K255" s="2">
-        <f t="shared" si="3"/>
-        <v>1714.9999999999986</v>
+        <f t="shared" si="4"/>
+        <v>2202.0000000000041</v>
       </c>
       <c r="L255" t="s">
         <v>27</v>
       </c>
       <c r="M255" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N255" t="s">
         <v>19</v>
@@ -15403,13 +15423,13 @@
         <v>20</v>
       </c>
       <c r="P255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q255" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>223</v>
       </c>
@@ -15441,7 +15461,7 @@
         <v>5.5048188256317999E-2</v>
       </c>
       <c r="K256" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>333.00000000000034</v>
       </c>
       <c r="L256" t="s">
@@ -15463,7 +15483,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>201</v>
       </c>
@@ -15495,7 +15515,7 @@
         <v>0.13821054194749299</v>
       </c>
       <c r="K257" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.35011742399778</v>
       </c>
       <c r="L257" t="s">
@@ -15517,7 +15537,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>199</v>
       </c>
@@ -15549,7 +15569,7 @@
         <v>0.13820872640516901</v>
       </c>
       <c r="K258" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.351492799932132</v>
       </c>
       <c r="L258" t="s">
@@ -15571,7 +15591,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>13</v>
       </c>
@@ -15603,7 +15623,7 @@
         <v>0.170889890307869</v>
       </c>
       <c r="K259" s="2">
-        <f t="shared" ref="K259:K269" si="4">(1/J259)^2+3</f>
+        <f t="shared" si="4"/>
         <v>37.242641414794988</v>
       </c>
       <c r="L259" t="s">
@@ -15625,40 +15645,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="B260" t="s">
-        <v>355</v>
+        <v>206</v>
       </c>
       <c r="C260" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c r="D260" t="s">
         <v>32</v>
       </c>
       <c r="E260" t="s">
-        <v>357</v>
+        <v>210</v>
       </c>
       <c r="F260" t="s">
         <v>15</v>
       </c>
-      <c r="G260">
-        <v>-0.16973737763046201</v>
-      </c>
-      <c r="H260">
-        <v>0.16535356246031499</v>
-      </c>
-      <c r="I260">
-        <v>-0.17139623789809599</v>
-      </c>
-      <c r="J260" s="1">
-        <v>0.17025885234976099</v>
+      <c r="G260" s="2">
+        <v>0.220800499008764</v>
+      </c>
+      <c r="H260" s="2">
+        <v>1.8610503009152301E-2</v>
+      </c>
+      <c r="I260" s="2">
+        <v>0.22449747868459299</v>
+      </c>
+      <c r="J260" s="2">
+        <v>1.9564319548172001E-2</v>
       </c>
       <c r="K260" s="2">
         <f t="shared" si="4"/>
-        <v>37.49694185578808</v>
+        <v>2615.5854553501417</v>
       </c>
       <c r="L260" t="s">
         <v>27</v>
@@ -15667,19 +15687,19 @@
         <v>18</v>
       </c>
       <c r="N260" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O260" t="s">
         <v>20</v>
       </c>
       <c r="P260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q260" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16</v>
       </c>
@@ -15733,49 +15753,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="B262" t="s">
-        <v>344</v>
+        <v>206</v>
       </c>
       <c r="C262" t="s">
-        <v>345</v>
+        <v>211</v>
       </c>
       <c r="D262" t="s">
         <v>32</v>
       </c>
       <c r="E262" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="F262" t="s">
         <v>15</v>
       </c>
-      <c r="G262">
-        <v>-0.191538071371774</v>
-      </c>
-      <c r="H262" s="1">
-        <v>0.124257119742721</v>
-      </c>
-      <c r="I262">
-        <v>-0.193933329744126</v>
-      </c>
-      <c r="J262" s="1">
-        <v>0.12898932971292501</v>
+      <c r="G262" s="2">
+        <v>0.211597818308255</v>
+      </c>
+      <c r="H262" s="2">
+        <v>1.96368328676941E-2</v>
+      </c>
+      <c r="I262" s="2">
+        <v>0.214843467983546</v>
+      </c>
+      <c r="J262" s="2">
+        <v>2.0557255978696599E-2</v>
       </c>
       <c r="K262" s="2">
         <f t="shared" si="4"/>
-        <v>63.102484906865101</v>
+        <v>2369.2995029964495</v>
       </c>
       <c r="L262" t="s">
         <v>27</v>
       </c>
       <c r="M262" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N262" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O262" t="s">
         <v>20</v>
@@ -15784,10 +15804,10 @@
         <v>3</v>
       </c>
       <c r="Q262" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>192</v>
       </c>
@@ -15841,7 +15861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>146</v>
       </c>
@@ -15895,7 +15915,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>196</v>
       </c>
@@ -15949,49 +15969,49 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="B266" t="s">
-        <v>417</v>
+        <v>206</v>
       </c>
       <c r="C266" t="s">
-        <v>420</v>
+        <v>211</v>
       </c>
       <c r="D266" t="s">
         <v>32</v>
       </c>
       <c r="E266" t="s">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="F266" t="s">
         <v>15</v>
       </c>
-      <c r="G266">
-        <v>-0.24404410200000001</v>
-      </c>
-      <c r="H266" s="1">
-        <v>0.169124684</v>
-      </c>
-      <c r="I266">
-        <v>-0.24906984297006299</v>
-      </c>
-      <c r="J266" s="1">
-        <v>0.17983522465846499</v>
+      <c r="G266" s="2">
+        <v>0.19252686892794901</v>
+      </c>
+      <c r="H266" s="2">
+        <v>2.0025822910582101E-2</v>
+      </c>
+      <c r="I266" s="2">
+        <v>0.194959986887697</v>
+      </c>
+      <c r="J266" s="2">
+        <v>2.0796685224532801E-2</v>
       </c>
       <c r="K266" s="2">
         <f t="shared" si="4"/>
-        <v>33.920782536221452</v>
+        <v>2315.127414518653</v>
       </c>
       <c r="L266" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="M266" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N266" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O266" t="s">
         <v>20</v>
@@ -16000,10 +16020,10 @@
         <v>3</v>
       </c>
       <c r="Q266" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>197</v>
       </c>
@@ -16035,7 +16055,7 @@
         <v>7.8567420131838595E-2</v>
       </c>
       <c r="K267" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K267:K330" si="5">(1/J267)^2+3</f>
         <v>165.00000000000009</v>
       </c>
       <c r="L267" t="s">
@@ -16057,61 +16077,61 @@
         <v>307</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="B268" t="s">
-        <v>375</v>
+        <v>206</v>
       </c>
       <c r="C268" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="D268" t="s">
         <v>32</v>
       </c>
       <c r="E268" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="F268" t="s">
         <v>15</v>
       </c>
-      <c r="G268">
-        <v>-0.32001329437029802</v>
-      </c>
-      <c r="H268" s="1">
-        <v>0.14994280567160301</v>
-      </c>
-      <c r="I268">
-        <v>-0.331661919793934</v>
-      </c>
-      <c r="J268" s="1">
-        <v>0.16705016380374199</v>
+      <c r="G268" s="2">
+        <v>0.18326311381858301</v>
+      </c>
+      <c r="H268" s="2">
+        <v>1.8981002685397898E-2</v>
+      </c>
+      <c r="I268" s="2">
+        <v>0.18535712867601101</v>
+      </c>
+      <c r="J268" s="2">
+        <v>1.9640640853634098E-2</v>
       </c>
       <c r="K268" s="2">
-        <f t="shared" si="4"/>
-        <v>38.834899295890843</v>
+        <f t="shared" si="5"/>
+        <v>2595.3204834417961</v>
       </c>
       <c r="L268" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M268" t="s">
         <v>18</v>
       </c>
       <c r="N268" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O268" t="s">
         <v>20</v>
       </c>
       <c r="P268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q268" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>246</v>
       </c>
@@ -16143,7 +16163,7 @@
         <v>0.20412414523193201</v>
       </c>
       <c r="K269" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K269" si="6">(1/J269)^2+3</f>
         <v>26.999999999999883</v>
       </c>
       <c r="L269" t="s">
@@ -16165,672 +16185,672 @@
         <v>384</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="G270"/>
       <c r="H270"/>
       <c r="I270"/>
       <c r="J270"/>
       <c r="K270"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="G271"/>
       <c r="H271" s="1"/>
       <c r="I271"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="G272"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G273"/>
       <c r="H273"/>
       <c r="I273"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G274"/>
       <c r="H274" s="1"/>
       <c r="I274"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G275"/>
       <c r="H275" s="1"/>
       <c r="I275"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G276"/>
       <c r="H276" s="1"/>
       <c r="I276"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G277"/>
       <c r="H277" s="1"/>
       <c r="I277"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G278"/>
       <c r="H278" s="1"/>
       <c r="I278"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G279"/>
       <c r="H279" s="1"/>
       <c r="I279"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G280"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G281"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G282"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G283"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G284"/>
       <c r="H284"/>
       <c r="I284"/>
       <c r="J284"/>
       <c r="K284"/>
     </row>
-    <row r="285" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G285"/>
       <c r="H285"/>
       <c r="I285"/>
       <c r="J285"/>
       <c r="K285"/>
     </row>
-    <row r="286" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G286"/>
       <c r="H286"/>
       <c r="I286"/>
       <c r="J286"/>
       <c r="K286"/>
     </row>
-    <row r="287" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G287"/>
       <c r="H287"/>
       <c r="I287"/>
       <c r="J287"/>
       <c r="K287"/>
     </row>
-    <row r="288" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G288"/>
       <c r="H288"/>
       <c r="I288"/>
       <c r="J288"/>
       <c r="K288"/>
     </row>
-    <row r="289" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G289"/>
       <c r="H289" s="1"/>
       <c r="I289"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G290"/>
       <c r="H290" s="1"/>
       <c r="I290"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G291"/>
       <c r="H291"/>
       <c r="I291" s="1"/>
       <c r="J291"/>
       <c r="K291"/>
     </row>
-    <row r="292" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G292"/>
       <c r="H292"/>
       <c r="I292"/>
       <c r="J292"/>
       <c r="K292"/>
     </row>
-    <row r="293" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G293" s="1"/>
       <c r="H293"/>
       <c r="I293" s="1"/>
       <c r="J293"/>
       <c r="K293"/>
     </row>
-    <row r="294" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G294"/>
       <c r="H294"/>
       <c r="I294"/>
       <c r="J294"/>
       <c r="K294"/>
     </row>
-    <row r="295" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G295"/>
       <c r="H295"/>
       <c r="I295"/>
       <c r="J295"/>
       <c r="K295"/>
     </row>
-    <row r="296" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G296"/>
       <c r="H296"/>
       <c r="I296"/>
       <c r="J296"/>
       <c r="K296"/>
     </row>
-    <row r="297" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G297"/>
       <c r="H297"/>
       <c r="I297"/>
       <c r="J297"/>
       <c r="K297"/>
     </row>
-    <row r="298" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G298"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G299"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G300"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G301"/>
       <c r="H301" s="1"/>
       <c r="I301"/>
       <c r="J301"/>
       <c r="K301"/>
     </row>
-    <row r="302" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G302"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302"/>
       <c r="K302"/>
     </row>
-    <row r="303" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G303"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303"/>
       <c r="K303"/>
     </row>
-    <row r="304" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G304"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304"/>
       <c r="K304"/>
     </row>
-    <row r="305" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G305"/>
       <c r="H305" s="1"/>
       <c r="I305"/>
       <c r="J305"/>
       <c r="K305"/>
     </row>
-    <row r="306" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G306"/>
       <c r="H306" s="1"/>
       <c r="I306"/>
       <c r="J306"/>
       <c r="K306"/>
     </row>
-    <row r="307" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G307"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307"/>
       <c r="K307"/>
     </row>
-    <row r="308" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G308"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308"/>
       <c r="K308"/>
     </row>
-    <row r="309" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G309"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309"/>
       <c r="K309"/>
     </row>
-    <row r="310" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G310"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310"/>
       <c r="K310"/>
     </row>
-    <row r="311" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G311"/>
       <c r="H311" s="1"/>
       <c r="I311"/>
       <c r="J311"/>
       <c r="K311"/>
     </row>
-    <row r="312" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G312"/>
       <c r="H312" s="1"/>
       <c r="I312"/>
       <c r="J312"/>
       <c r="K312"/>
     </row>
-    <row r="313" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G313"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313"/>
       <c r="K313"/>
     </row>
-    <row r="314" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G314"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314"/>
       <c r="K314"/>
     </row>
-    <row r="315" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G315"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315"/>
       <c r="K315"/>
     </row>
-    <row r="316" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G316"/>
       <c r="H316" s="1"/>
       <c r="I316"/>
       <c r="J316"/>
       <c r="K316"/>
     </row>
-    <row r="317" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G317"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317"/>
       <c r="K317"/>
     </row>
-    <row r="318" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G318"/>
       <c r="H318"/>
       <c r="I318"/>
       <c r="J318"/>
       <c r="K318"/>
     </row>
-    <row r="319" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G319"/>
       <c r="H319"/>
       <c r="I319"/>
       <c r="J319"/>
       <c r="K319"/>
     </row>
-    <row r="320" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G320" s="1"/>
       <c r="H320"/>
       <c r="I320" s="1"/>
       <c r="J320"/>
       <c r="K320"/>
     </row>
-    <row r="321" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G321"/>
       <c r="H321" s="1"/>
       <c r="I321"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G322"/>
       <c r="H322"/>
       <c r="I322"/>
       <c r="J322"/>
       <c r="K322"/>
     </row>
-    <row r="323" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G323"/>
       <c r="H323" s="1"/>
       <c r="I323"/>
       <c r="J323"/>
       <c r="K323"/>
     </row>
-    <row r="324" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G324"/>
       <c r="H324"/>
       <c r="I324"/>
       <c r="J324"/>
       <c r="K324"/>
     </row>
-    <row r="325" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G325"/>
       <c r="H325"/>
       <c r="I325"/>
       <c r="J325"/>
       <c r="K325"/>
     </row>
-    <row r="326" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G326"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G327"/>
       <c r="H327" s="1"/>
       <c r="I327"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G328"/>
       <c r="H328" s="1"/>
       <c r="I328"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G329"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G330"/>
       <c r="H330" s="1"/>
       <c r="I330"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G331"/>
       <c r="H331" s="1"/>
       <c r="I331"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G332"/>
       <c r="H332"/>
       <c r="I332"/>
       <c r="J332"/>
       <c r="K332"/>
     </row>
-    <row r="333" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G333" s="1"/>
       <c r="H333"/>
       <c r="I333" s="1"/>
       <c r="J333"/>
       <c r="K333"/>
     </row>
-    <row r="334" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G334" s="1"/>
       <c r="H334"/>
       <c r="I334" s="1"/>
       <c r="J334"/>
       <c r="K334"/>
     </row>
-    <row r="335" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G335" s="1"/>
       <c r="H335"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G336"/>
       <c r="H336"/>
       <c r="I336"/>
       <c r="J336"/>
       <c r="K336"/>
     </row>
-    <row r="337" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G337"/>
       <c r="H337"/>
       <c r="I337"/>
       <c r="J337"/>
       <c r="K337"/>
     </row>
-    <row r="338" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G338"/>
       <c r="H338"/>
       <c r="I338"/>
       <c r="J338"/>
       <c r="K338"/>
     </row>
-    <row r="339" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G339"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G340"/>
       <c r="H340"/>
       <c r="I340"/>
       <c r="J340"/>
       <c r="K340"/>
     </row>
-    <row r="341" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G341"/>
       <c r="H341"/>
       <c r="I341"/>
       <c r="J341"/>
       <c r="K341"/>
     </row>
-    <row r="342" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G342"/>
       <c r="H342"/>
       <c r="I342"/>
       <c r="J342"/>
       <c r="K342"/>
     </row>
-    <row r="343" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G343"/>
       <c r="H343"/>
       <c r="I343"/>
       <c r="J343"/>
       <c r="K343"/>
     </row>
-    <row r="344" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G344" s="1"/>
       <c r="H344"/>
       <c r="I344" s="1"/>
       <c r="J344"/>
       <c r="K344"/>
     </row>
-    <row r="345" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G345"/>
       <c r="H345"/>
       <c r="I345"/>
       <c r="J345"/>
       <c r="K345"/>
     </row>
-    <row r="346" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G346"/>
       <c r="H346"/>
       <c r="I346"/>
       <c r="J346"/>
       <c r="K346"/>
     </row>
-    <row r="347" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G347"/>
       <c r="H347"/>
       <c r="I347"/>
       <c r="J347"/>
       <c r="K347"/>
     </row>
-    <row r="348" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G348"/>
       <c r="H348"/>
       <c r="I348"/>
       <c r="J348"/>
       <c r="K348"/>
     </row>
-    <row r="349" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G349"/>
       <c r="H349"/>
       <c r="I349"/>
       <c r="J349"/>
       <c r="K349"/>
     </row>
-    <row r="350" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G350"/>
       <c r="H350" s="1"/>
       <c r="I350"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
     </row>
-    <row r="351" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G352"/>
       <c r="H352"/>
       <c r="I352"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G353"/>
       <c r="H353"/>
       <c r="I353" s="1"/>
       <c r="J353"/>
       <c r="K353"/>
     </row>
-    <row r="354" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G354"/>
       <c r="H354"/>
       <c r="I354"/>
       <c r="J354"/>
       <c r="K354"/>
     </row>
-    <row r="355" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G355"/>
       <c r="H355"/>
       <c r="I355"/>
       <c r="J355"/>
       <c r="K355"/>
     </row>
-    <row r="356" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G356"/>
       <c r="H356"/>
       <c r="I356"/>
       <c r="J356"/>
       <c r="K356"/>
     </row>
-    <row r="357" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G357"/>
       <c r="H357"/>
       <c r="I357"/>
       <c r="J357"/>
       <c r="K357"/>
     </row>
-    <row r="358" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G358"/>
       <c r="H358" s="1"/>
       <c r="I358"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G359"/>
       <c r="H359"/>
       <c r="I359"/>
       <c r="J359"/>
       <c r="K359"/>
     </row>
-    <row r="360" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G360"/>
       <c r="H360" s="1"/>
       <c r="I360"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G361"/>
       <c r="H361"/>
       <c r="I361"/>
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G362"/>
       <c r="H362" s="1"/>
       <c r="I362"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G363"/>
       <c r="H363"/>
       <c r="I363" s="1"/>
       <c r="J363"/>
       <c r="K363"/>
     </row>
-    <row r="364" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G364"/>
       <c r="H364"/>
       <c r="I364"/>
       <c r="J364"/>
       <c r="K364"/>
     </row>
-    <row r="365" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="7:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="G365"/>
       <c r="H365"/>
       <c r="I365" s="1"/>
@@ -16839,8 +16859,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q365">
-    <sortState ref="A2:P365">
-      <sortCondition descending="1" ref="G1:G365"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10 minuten"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A11:Q268">
+      <sortCondition ref="B1:B365"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
